--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Agams\Copa America Mens Olympic\Copa America Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D906164-C467-4A7D-8312-B3F2752B1561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7UTR6hYYirt7EXaq102C9ilOtQW+458QrwfOAd5Z/jQ/psKCXAExK0y5j8eSASeHfN6viYeX07UeV8tbaA8Ecw==" workbookSaltValue="0Ulxfyr9BNEtZXBe+H1ciw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -32,15 +31,15 @@
     <definedName name="GroupG">Calculator!$BY$43</definedName>
     <definedName name="GroupH">Calculator!$BY$49</definedName>
     <definedName name="LanguageRef">Language!$C$1:$I$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Matches!$B$2:$W$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Setup!$A$4:$F$77</definedName>
     <definedName name="Team">Calculator!$BO$7:$BO$38</definedName>
     <definedName name="TimeZoneData">Setup!$C$4</definedName>
     <definedName name="TimeZoneList">Calculator!$BS$7:$BS$56</definedName>
     <definedName name="Translation">Language!$C$3:$I$74</definedName>
     <definedName name="TransRef">Language!$B$3:$B$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Matches!$B$2:$W$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Setup!$A$4:$F$77</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1339,7 +1338,7 @@
         <b/>
         <sz val="22"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1350,7 +1349,7 @@
         <b/>
         <sz val="22"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1364,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1374,7 +1373,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1649,7 +1648,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -1665,68 +1664,68 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1734,28 +1733,28 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1763,7 +1762,7 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1771,7 +1770,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1779,7 +1778,7 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1800,7 +1799,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1813,7 +1812,7 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1821,14 +1820,14 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1836,7 +1835,7 @@
       <b/>
       <sz val="22"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1844,14 +1843,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1859,28 +1858,28 @@
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3143,6 +3142,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection hidden="1"/>
@@ -3175,14 +3186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3201,15 +3204,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -3372,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,6 +3486,18 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -3515,6 +3526,18 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -4145,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4549,9 +4572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4589,9 +4612,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4626,7 +4649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4661,7 +4684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4834,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4845,26 +4868,26 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="174" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="64" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="2" customWidth="1"/>
-    <col min="13" max="22" width="8.85546875" style="2"/>
-    <col min="23" max="23" width="16.42578125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" style="174" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="64" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="2" customWidth="1"/>
+    <col min="13" max="22" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="16.44140625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="156" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="156" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="160"/>
       <c r="C1" s="157"/>
       <c r="D1" s="172"/>
@@ -4891,7 +4914,7 @@
       <c r="CZ1" s="161"/>
       <c r="DA1" s="161"/>
     </row>
-    <row r="2" spans="1:105" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:105" ht="35.4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4922,8 +4945,8 @@
       <c r="CZ2" s="12"/>
       <c r="DA2" s="12"/>
     </row>
-    <row r="3" spans="1:105" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:105" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="145" t="s">
         <v>474</v>
       </c>
@@ -4939,7 +4962,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="145" t="s">
         <v>362</v>
       </c>
@@ -4959,7 +4982,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="167" t="s">
         <v>363</v>
       </c>
@@ -4972,7 +4995,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="168" t="s">
         <v>4</v>
@@ -4990,7 +5013,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
@@ -5007,7 +5030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>431</v>
       </c>
@@ -5026,7 +5049,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:105" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>432</v>
       </c>
@@ -5059,7 +5082,7 @@
       <c r="V10" s="69"/>
       <c r="W10" s="69"/>
     </row>
-    <row r="11" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>475</v>
       </c>
@@ -5075,7 +5098,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
@@ -5094,7 +5117,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
@@ -5113,7 +5136,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>433</v>
       </c>
@@ -5132,7 +5155,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>434</v>
       </c>
@@ -5151,7 +5174,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
@@ -5170,7 +5193,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
@@ -5189,7 +5212,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>435</v>
       </c>
@@ -5208,7 +5231,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>436</v>
       </c>
@@ -5227,7 +5250,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
@@ -5246,7 +5269,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>437</v>
       </c>
@@ -5259,7 +5282,7 @@
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>438</v>
       </c>
@@ -5272,7 +5295,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>476</v>
       </c>
@@ -5285,7 +5308,7 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
@@ -5294,331 +5317,331 @@
         <v>468</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>415</v>
       </c>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>439</v>
       </c>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>440</v>
       </c>
       <c r="C54" s="14"/>
     </row>
-    <row r="55" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>441</v>
       </c>
       <c r="C55" s="14"/>
     </row>
-    <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>442</v>
       </c>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>443</v>
       </c>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>444</v>
       </c>
       <c r="C58" s="14"/>
     </row>
-    <row r="59" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>445</v>
       </c>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>446</v>
       </c>
       <c r="C60" s="14"/>
     </row>
-    <row r="61" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="14"/>
     </row>
-    <row r="62" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="14"/>
     </row>
-    <row r="63" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="14"/>
     </row>
-    <row r="64" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="14"/>
     </row>
-    <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C65" s="14"/>
     </row>
-    <row r="66" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C68" s="14"/>
     </row>
-    <row r="69" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="14"/>
     </row>
-    <row r="70" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="14"/>
     </row>
-    <row r="72" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="14"/>
     </row>
-    <row r="73" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>447</v>
       </c>
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
         <v>448</v>
       </c>
       <c r="C74" s="14"/>
     </row>
-    <row r="75" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="14"/>
     </row>
-    <row r="76" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>449</v>
       </c>
       <c r="C76" s="14"/>
     </row>
-    <row r="77" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>450</v>
       </c>
       <c r="C77" s="14"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>451</v>
       </c>
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>452</v>
       </c>
@@ -5631,15 +5654,15 @@
     <mergeCell ref="F5:F7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>TimeZoneList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>Countries</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{8A93AAB0-6F5E-403D-B33B-A9B1E49880D4}"/>
+    <hyperlink ref="M10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId2"/>
@@ -5647,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5656,39 +5679,39 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="AB23" sqref="AB23"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="56" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" style="56" customWidth="1"/>
-    <col min="8" max="9" width="3.140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="56" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="57" customWidth="1"/>
-    <col min="12" max="13" width="3.140625" style="57" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="0.85546875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="46" customWidth="1"/>
-    <col min="18" max="21" width="2.5703125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="1.5703125" style="58" customWidth="1"/>
-    <col min="25" max="25" width="0.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="1.5703125" style="46" customWidth="1"/>
-    <col min="27" max="27" width="2.5703125" style="46" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="46" customWidth="1"/>
-    <col min="29" max="29" width="1.140625" style="46" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" style="46" customWidth="1"/>
-    <col min="31" max="92" width="9.140625" style="46" customWidth="1"/>
-    <col min="93" max="96" width="9.140625" style="23" customWidth="1"/>
-    <col min="97" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="1.5546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="1.5546875" style="56" customWidth="1"/>
+    <col min="8" max="9" width="3.109375" style="46" customWidth="1"/>
+    <col min="10" max="10" width="1.5546875" style="56" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="57" customWidth="1"/>
+    <col min="12" max="13" width="3.109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" style="46" customWidth="1"/>
+    <col min="15" max="15" width="0.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" style="46" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="46" customWidth="1"/>
+    <col min="18" max="21" width="2.5546875" style="23" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="23" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" style="23" customWidth="1"/>
+    <col min="24" max="24" width="1.5546875" style="58" customWidth="1"/>
+    <col min="25" max="25" width="0.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="1.5546875" style="46" customWidth="1"/>
+    <col min="27" max="27" width="2.5546875" style="46" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" style="46" customWidth="1"/>
+    <col min="29" max="29" width="1.109375" style="46" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" style="46" customWidth="1"/>
+    <col min="31" max="92" width="9.109375" style="46" customWidth="1"/>
+    <col min="93" max="96" width="9.109375" style="23" customWidth="1"/>
+    <col min="97" max="16384" width="9.109375" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:96" s="156" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,7 +5736,7 @@
       <c r="CQ1" s="161"/>
       <c r="CR1" s="161"/>
     </row>
-    <row r="2" spans="2:96" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:96" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Fixtures",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 FIXTURES</v>
@@ -5727,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="231" t="s">
+      <c r="P2" s="215" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5744,7 +5767,7 @@
       <c r="CQ2" s="12"/>
       <c r="CR2" s="12"/>
     </row>
-    <row r="3" spans="2:96" s="21" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:96" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="135" t="str">
         <f>INDEX(Translation,MATCH("Match #",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Match #</v>
@@ -5763,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="223" t="str">
+      <c r="H3" s="216" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="223"/>
+      <c r="I3" s="216"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5795,7 +5818,7 @@
       <c r="Y3" s="71"/>
       <c r="CQ3" s="22"/>
     </row>
-    <row r="4" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="142" t="str">
         <f>INDEX(Translation,MATCH("Group Stages",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Group Stages</v>
@@ -5813,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="224" t="str">
+      <c r="P4" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="224"/>
+      <c r="Q4" s="217"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -5849,7 +5872,7 @@
       <c r="CQ4" s="23"/>
       <c r="CR4" s="12"/>
     </row>
-    <row r="5" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24">
         <v>1</v>
       </c>
@@ -5869,8 +5892,12 @@
         <v>Argentina</v>
       </c>
       <c r="G5" s="28"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
+      <c r="H5" s="115">
+        <v>2</v>
+      </c>
+      <c r="I5" s="116">
+        <v>0</v>
+      </c>
       <c r="J5" s="28"/>
       <c r="K5" s="29" t="str">
         <f>INDEX(Translation,MATCH(Setup!B11,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -5891,11 +5918,11 @@
       </c>
       <c r="R5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -5907,11 +5934,11 @@
       </c>
       <c r="V5" s="75" t="str">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q5,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 0</v>
       </c>
       <c r="W5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="71"/>
@@ -5924,7 +5951,7 @@
       <c r="CQ5" s="23"/>
       <c r="CR5" s="12"/>
     </row>
-    <row r="6" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24">
         <v>2</v>
       </c>
@@ -6002,7 +6029,7 @@
       <c r="CQ6" s="23"/>
       <c r="CR6" s="12"/>
     </row>
-    <row r="7" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24">
         <v>3</v>
       </c>
@@ -6074,7 +6101,7 @@
       <c r="CQ7" s="23"/>
       <c r="CR7" s="12"/>
     </row>
-    <row r="8" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24">
         <v>4</v>
       </c>
@@ -6116,7 +6143,7 @@
       </c>
       <c r="R8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6128,11 +6155,11 @@
       </c>
       <c r="U8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="38" t="str">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q8,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 2</v>
       </c>
       <c r="W8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6154,7 +6181,7 @@
       <c r="CQ8" s="23"/>
       <c r="CR8" s="12"/>
     </row>
-    <row r="9" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>5</v>
       </c>
@@ -6209,7 +6236,7 @@
       <c r="CQ9" s="23"/>
       <c r="CR9" s="12"/>
     </row>
-    <row r="10" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>6</v>
       </c>
@@ -6242,11 +6269,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="224" t="str">
+      <c r="P10" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="224"/>
+      <c r="Q10" s="217"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6281,7 +6308,7 @@
       <c r="CQ10" s="23"/>
       <c r="CR10" s="12"/>
     </row>
-    <row r="11" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <v>7</v>
       </c>
@@ -6359,7 +6386,7 @@
       <c r="CQ11" s="23"/>
       <c r="CR11" s="12"/>
     </row>
-    <row r="12" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <v>8</v>
       </c>
@@ -6436,7 +6463,7 @@
       <c r="CQ12" s="23"/>
       <c r="CR12" s="12"/>
     </row>
-    <row r="13" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <v>9</v>
       </c>
@@ -6514,7 +6541,7 @@
       <c r="CQ13" s="23"/>
       <c r="CR13" s="12"/>
     </row>
-    <row r="14" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <v>10</v>
       </c>
@@ -6593,7 +6620,7 @@
       <c r="CQ14" s="23"/>
       <c r="CR14" s="12"/>
     </row>
-    <row r="15" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24">
         <v>11</v>
       </c>
@@ -6646,7 +6673,7 @@
       <c r="CQ15" s="23"/>
       <c r="CR15" s="12"/>
     </row>
-    <row r="16" spans="2:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <v>12</v>
       </c>
@@ -6679,11 +6706,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="224" t="str">
+      <c r="P16" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="224"/>
+      <c r="Q16" s="217"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -6709,7 +6736,7 @@
       <c r="CQ16" s="23"/>
       <c r="CR16" s="12"/>
     </row>
-    <row r="17" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24">
         <v>13</v>
       </c>
@@ -6778,7 +6805,7 @@
       <c r="CQ17" s="23"/>
       <c r="CR17" s="12"/>
     </row>
-    <row r="18" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24">
         <v>14</v>
       </c>
@@ -6849,7 +6876,7 @@
       <c r="CQ18" s="23"/>
       <c r="CR18" s="12"/>
     </row>
-    <row r="19" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24">
         <v>15</v>
       </c>
@@ -6918,7 +6945,7 @@
       <c r="CQ19" s="23"/>
       <c r="CR19" s="12"/>
     </row>
-    <row r="20" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
         <v>16</v>
       </c>
@@ -6989,7 +7016,7 @@
       <c r="CQ20" s="23"/>
       <c r="CR20" s="12"/>
     </row>
-    <row r="21" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <v>17</v>
       </c>
@@ -7035,7 +7062,7 @@
       <c r="CQ21" s="23"/>
       <c r="CR21" s="12"/>
     </row>
-    <row r="22" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24">
         <v>18</v>
       </c>
@@ -7068,11 +7095,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="224" t="str">
+      <c r="P22" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="224"/>
+      <c r="Q22" s="217"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7098,7 +7125,7 @@
       <c r="CQ22" s="23"/>
       <c r="CR22" s="12"/>
     </row>
-    <row r="23" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="24">
         <v>19</v>
       </c>
@@ -7167,7 +7194,7 @@
       <c r="CQ23" s="23"/>
       <c r="CR23" s="12"/>
     </row>
-    <row r="24" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24">
         <v>20</v>
       </c>
@@ -7238,7 +7265,7 @@
       <c r="CQ24" s="23"/>
       <c r="CR24" s="12"/>
     </row>
-    <row r="25" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
         <v>21</v>
       </c>
@@ -7307,7 +7334,7 @@
       <c r="CQ25" s="23"/>
       <c r="CR25" s="12"/>
     </row>
-    <row r="26" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24">
         <v>22</v>
       </c>
@@ -7378,7 +7405,7 @@
       <c r="CQ26" s="23"/>
       <c r="CR26" s="12"/>
     </row>
-    <row r="27" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24">
         <v>23</v>
       </c>
@@ -7424,7 +7451,7 @@
       <c r="CQ27" s="23"/>
       <c r="CR27" s="12"/>
     </row>
-    <row r="28" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24">
         <v>24</v>
       </c>
@@ -7472,7 +7499,7 @@
       <c r="CQ28" s="23"/>
       <c r="CR28" s="12"/>
     </row>
-    <row r="29" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="148" t="str">
         <f>INDEX(Translation,MATCH("Knock Out Rounds",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Knock Out Rounds</v>
@@ -7486,10 +7513,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="217" t="s">
+      <c r="L29" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="217"/>
+      <c r="M29" s="220"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7498,11 +7525,11 @@
       <c r="CQ29" s="23"/>
       <c r="CR29" s="12"/>
     </row>
-    <row r="30" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="220" t="s">
+      <c r="C30" s="223" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7537,12 +7564,12 @@
       <c r="CQ30" s="23"/>
       <c r="CR30" s="12"/>
     </row>
-    <row r="31" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="221"/>
+      <c r="C31" s="224"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7575,12 +7602,12 @@
       <c r="CQ31" s="23"/>
       <c r="CR31" s="12"/>
     </row>
-    <row r="32" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="221"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7615,12 +7642,12 @@
       </c>
       <c r="CR32" s="12"/>
     </row>
-    <row r="33" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="224"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7655,12 +7682,12 @@
       </c>
       <c r="CR33" s="12"/>
     </row>
-    <row r="34" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="222" t="s">
+      <c r="C34" s="225" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7697,12 +7724,12 @@
       </c>
       <c r="CR34" s="12"/>
     </row>
-    <row r="35" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="222"/>
+      <c r="C35" s="225"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7737,7 +7764,7 @@
       </c>
       <c r="CR35" s="12"/>
     </row>
-    <row r="36" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
       <c r="B36" s="47">
         <v>31</v>
@@ -7779,7 +7806,7 @@
       </c>
       <c r="CR36" s="12"/>
     </row>
-    <row r="37" spans="1:96" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
       <c r="B37" s="47">
         <v>32</v>
@@ -7839,187 +7866,187 @@
       </c>
       <c r="CR38" s="12"/>
     </row>
-    <row r="39" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="219" t="str">
+    <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="222" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="219"/>
-      <c r="M39" s="219"/>
-      <c r="N39" s="219"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222"/>
+      <c r="N39" s="222"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="215" t="str">
+      <c r="P39" s="218" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="215"/>
-      <c r="R39" s="215"/>
-      <c r="S39" s="215"/>
-      <c r="T39" s="215"/>
-      <c r="U39" s="215"/>
-      <c r="V39" s="215"/>
-      <c r="W39" s="215"/>
+      <c r="Q39" s="218"/>
+      <c r="R39" s="218"/>
+      <c r="S39" s="218"/>
+      <c r="T39" s="218"/>
+      <c r="U39" s="218"/>
+      <c r="V39" s="218"/>
+      <c r="W39" s="218"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
-    <row r="40" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="219"/>
-      <c r="M40" s="219"/>
-      <c r="N40" s="219"/>
+    <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="222"/>
+      <c r="C40" s="222"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="222"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="216" t="str">
+      <c r="P40" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="216"/>
-      <c r="R40" s="216"/>
-      <c r="S40" s="216"/>
-      <c r="T40" s="216"/>
-      <c r="U40" s="216"/>
-      <c r="V40" s="216"/>
-      <c r="W40" s="216"/>
+      <c r="Q40" s="219"/>
+      <c r="R40" s="219"/>
+      <c r="S40" s="219"/>
+      <c r="T40" s="219"/>
+      <c r="U40" s="219"/>
+      <c r="V40" s="219"/>
+      <c r="W40" s="219"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
-    <row r="41" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="219"/>
-      <c r="M41" s="219"/>
-      <c r="N41" s="219"/>
+    <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="222"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222"/>
+      <c r="M41" s="222"/>
+      <c r="N41" s="222"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="216"/>
-      <c r="Q41" s="216"/>
-      <c r="R41" s="216"/>
-      <c r="S41" s="216"/>
-      <c r="T41" s="216"/>
-      <c r="U41" s="216"/>
-      <c r="V41" s="216"/>
-      <c r="W41" s="216"/>
+      <c r="P41" s="219"/>
+      <c r="Q41" s="219"/>
+      <c r="R41" s="219"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="219"/>
+      <c r="U41" s="219"/>
+      <c r="V41" s="219"/>
+      <c r="W41" s="219"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
-    <row r="42" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="218" t="str">
+    <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="221" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="221"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="215" t="str">
+      <c r="P42" s="218" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="215"/>
-      <c r="R42" s="215"/>
-      <c r="S42" s="215"/>
-      <c r="T42" s="215"/>
-      <c r="U42" s="215"/>
-      <c r="V42" s="215"/>
-      <c r="W42" s="215"/>
+      <c r="Q42" s="218"/>
+      <c r="R42" s="218"/>
+      <c r="S42" s="218"/>
+      <c r="T42" s="218"/>
+      <c r="U42" s="218"/>
+      <c r="V42" s="218"/>
+      <c r="W42" s="218"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
-    <row r="43" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="218"/>
-      <c r="C43" s="218"/>
-      <c r="D43" s="218"/>
-      <c r="E43" s="218"/>
-      <c r="F43" s="218"/>
-      <c r="G43" s="218"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+    <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="221"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="216" t="str">
+      <c r="P43" s="219" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="216"/>
-      <c r="R43" s="216"/>
-      <c r="S43" s="216"/>
-      <c r="T43" s="216"/>
-      <c r="U43" s="216"/>
-      <c r="V43" s="216"/>
-      <c r="W43" s="216"/>
+      <c r="Q43" s="219"/>
+      <c r="R43" s="219"/>
+      <c r="S43" s="219"/>
+      <c r="T43" s="219"/>
+      <c r="U43" s="219"/>
+      <c r="V43" s="219"/>
+      <c r="W43" s="219"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
-    <row r="44" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="218"/>
-      <c r="C44" s="218"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
-      <c r="H44" s="218"/>
-      <c r="I44" s="218"/>
-      <c r="J44" s="218"/>
-      <c r="K44" s="218"/>
-      <c r="L44" s="218"/>
-      <c r="M44" s="218"/>
-      <c r="N44" s="218"/>
-      <c r="P44" s="216"/>
-      <c r="Q44" s="216"/>
-      <c r="R44" s="216"/>
-      <c r="S44" s="216"/>
-      <c r="T44" s="216"/>
-      <c r="U44" s="216"/>
-      <c r="V44" s="216"/>
-      <c r="W44" s="216"/>
+    <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="221"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="219"/>
+      <c r="R44" s="219"/>
+      <c r="S44" s="219"/>
+      <c r="T44" s="219"/>
+      <c r="U44" s="219"/>
+      <c r="V44" s="219"/>
+      <c r="W44" s="219"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
-    <row r="45" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>78</v>
       </c>
       <c r="X45" s="8"/>
       <c r="Y45" s="71"/>
     </row>
-    <row r="46" spans="1:96" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X46" s="8"/>
       <c r="Y46" s="71"/>
     </row>
@@ -8044,8 +8071,8 @@
       <c r="Y51" s="71"/>
     </row>
     <row r="55" spans="24:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="24:25" ht="28.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="24:25" ht="28.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="24:25" ht="28.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="24:25" ht="28.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="24:25" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="24:25" x14ac:dyDescent="0.25"/>
     <row r="162" x14ac:dyDescent="0.25"/>
@@ -8058,11 +8085,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8073,6 +8095,11 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -8134,8 +8161,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" xr:uid="{E81A0CA0-16CE-48C5-9B8B-3B6C415A721D}"/>
-    <hyperlink ref="P2:W2" location="About!A1" display="Click here to purchase the Unprotected Version for your Commercial Purposes" xr:uid="{4580D884-84FB-4F45-ABA7-63F06664CAFE}"/>
+    <hyperlink ref="AE6" r:id="rId1"/>
+    <hyperlink ref="P2:W2" location="About!A1" display="Click here to purchase the Unprotected Version for your Commercial Purposes"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
@@ -8146,48 +8173,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:CA152"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="6" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="22" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="22"/>
-    <col min="26" max="31" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.85546875" style="22" customWidth="1"/>
-    <col min="33" max="48" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="1.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="50" max="63" width="2.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" style="22"/>
-    <col min="65" max="65" width="9.85546875" style="189" customWidth="1"/>
-    <col min="66" max="66" width="3.28515625" style="189" customWidth="1"/>
+    <col min="8" max="9" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" style="22" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="22"/>
+    <col min="26" max="31" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.88671875" style="22" customWidth="1"/>
+    <col min="33" max="48" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="1.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="50" max="63" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.109375" style="22"/>
+    <col min="65" max="65" width="9.88671875" style="189" customWidth="1"/>
+    <col min="66" max="66" width="3.33203125" style="189" customWidth="1"/>
     <col min="67" max="67" width="23" style="189" customWidth="1"/>
-    <col min="68" max="68" width="30.85546875" style="189" customWidth="1"/>
-    <col min="69" max="69" width="40.85546875" style="189" customWidth="1"/>
-    <col min="70" max="70" width="4.7109375" style="189" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.28515625" style="189" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" style="189" customWidth="1"/>
-    <col min="73" max="74" width="9.42578125" style="189" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="13.5703125" style="189" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.42578125" style="189" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="9.140625" style="189"/>
-    <col min="80" max="16384" width="9.140625" style="22"/>
+    <col min="68" max="68" width="30.88671875" style="189" customWidth="1"/>
+    <col min="69" max="69" width="40.88671875" style="189" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" style="189" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.33203125" style="189" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5546875" style="189" customWidth="1"/>
+    <col min="73" max="74" width="9.44140625" style="189" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="13.5546875" style="189" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.44140625" style="189" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="9.109375" style="189"/>
+    <col min="80" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:78" x14ac:dyDescent="0.25">
@@ -8204,11 +8231,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUM(E4:G4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C4)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -8220,7 +8247,7 @@
       </c>
       <c r="H4" s="22">
         <f>SUMIF(Matches!F5:F28,C4,Matches!H5:H28)+SUMIF(Matches!K5:K28,C4,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="22">
         <f>SUMIF(Matches!F5:F28,C4,Matches!I5:I28)+SUMIF(Matches!K5:K28,C4,Matches!H5:H28)</f>
@@ -8228,11 +8255,11 @@
       </c>
       <c r="J4" s="22">
         <f>H4-I4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="22">
         <f>F4*1+E4*3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="22">
         <f>Setup!E8</f>
@@ -8279,7 +8306,7 @@
       </c>
       <c r="W4" s="22" t="str">
         <f>IF(V5=1,U4,"")</f>
-        <v>Argentina</v>
+        <v/>
       </c>
       <c r="Z4" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8287,7 +8314,7 @@
       </c>
       <c r="AA4" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W4)*(Matches!K5:K28=W7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W4)*(Matches!F5:F28=W7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8307,7 +8334,7 @@
       </c>
       <c r="AF4" s="22">
         <f>AA4*1+Z4*3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="22">
         <f>IF(W4&lt;&gt;"",SUMPRODUCT((V4:V7=V4)*(AF4:AF7&gt;AF4)*1),0)</f>
@@ -8466,7 +8493,7 @@
       </c>
       <c r="N5" s="22">
         <f>RANK(K5,K4:K7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="22">
         <f>SUMPRODUCT((N4:N7=N5)*(J4:J7&gt;J5)*1)</f>
@@ -8474,7 +8501,7 @@
       </c>
       <c r="P5" s="22">
         <f t="shared" ref="P5:P19" si="5">N5+O5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="22">
         <f>SUMPRODUCT((N4:N7=N5)*(J4:J7=J5)*(H4:H7&gt;H5)*1)</f>
@@ -8482,7 +8509,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" ref="R5:R19" si="6">P5+Q5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="22">
         <f>RANK(R5,R4:R7,1)+COUNTIF(R4:R5,R5)-1</f>
@@ -8497,15 +8524,15 @@
       </c>
       <c r="V5" s="22">
         <f>INDEX(R4:R7,MATCH(U5,C4:C7,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="22" t="str">
         <f>IF(W4&lt;&gt;"",U5,"")</f>
-        <v>Peru</v>
+        <v/>
       </c>
       <c r="X5" s="22" t="str">
         <f>IF(V6=2,U5,"")</f>
-        <v/>
+        <v>Peru</v>
       </c>
       <c r="Z5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8513,7 +8540,7 @@
       </c>
       <c r="AA5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W4)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W4)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8533,7 +8560,7 @@
       </c>
       <c r="AF5" s="22">
         <f t="shared" ref="AF5:AF19" si="8">AA5*1+Z5*3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="22">
         <f>IF(W5&lt;&gt;"",SUMPRODUCT((V4:V7=V5)*(AF4:AF7&gt;AF5)*1),0)</f>
@@ -8553,7 +8580,7 @@
       </c>
       <c r="AK5" s="22">
         <f t="shared" ref="AK5:AK19" si="9">V5+AI5+AJ5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8561,7 +8588,7 @@
       </c>
       <c r="AM5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8581,7 +8608,7 @@
       </c>
       <c r="AR5" s="22">
         <f t="shared" ref="AR5:AR19" si="11">AM5*1+AL5*3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="22">
         <f>IF(X5&lt;&gt;"",SUMPRODUCT((V4:V7=V5)*(AR4:AR7&gt;AR5)*1),0)</f>
@@ -8601,7 +8628,7 @@
       </c>
       <c r="AW5" s="22">
         <f t="shared" ref="AW5:AW19" si="13">AK5+AU5+AV5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="22">
         <v>0</v>
@@ -8638,11 +8665,11 @@
       </c>
       <c r="BI5" s="22">
         <f>AW5+BG5+BH5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ5" s="22">
         <f>SUMPRODUCT((BI4:BI7=BI5)*(A4:A7&gt;A5)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="22">
         <f t="shared" ref="BK5:BK19" si="14">BJ5+BI5</f>
@@ -8703,7 +8730,7 @@
       </c>
       <c r="N6" s="22">
         <f>RANK(K6,K4:K7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="22">
         <f>SUMPRODUCT((N4:N7=N6)*(J4:J7&gt;J6)*1)</f>
@@ -8711,7 +8738,7 @@
       </c>
       <c r="P6" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="22">
         <f>SUMPRODUCT((N4:N7=N6)*(J4:J7=J6)*(H4:H7&gt;H6)*1)</f>
@@ -8719,7 +8746,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="22">
         <f>IF(Matches!B45="© 2022 | journalSHEET.com",RANK(R6,R4:R7,1)+COUNTIF(R4:R6,R6)-1,2)</f>
@@ -8734,15 +8761,15 @@
       </c>
       <c r="V6" s="22">
         <f>INDEX(R4:R7,MATCH(U6,C4:C7,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="22" t="str">
         <f>IF(AND(W5&lt;&gt;"",V6=1),U6,"")</f>
-        <v>Chile</v>
+        <v/>
       </c>
       <c r="X6" s="22" t="str">
         <f>IF(X5&lt;&gt;"",U6,"")</f>
-        <v/>
+        <v>Chile</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f>IF(V7=3,U6,"")</f>
@@ -8754,7 +8781,7 @@
       </c>
       <c r="AA6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W4)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W4)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8774,7 +8801,7 @@
       </c>
       <c r="AF6" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="22">
         <f>IF(W6&lt;&gt;"",SUMPRODUCT((V4:V7=V6)*(AF4:AF7&gt;AF6)*1),0)</f>
@@ -8794,7 +8821,7 @@
       </c>
       <c r="AK6" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8802,7 +8829,7 @@
       </c>
       <c r="AM6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8822,7 +8849,7 @@
       </c>
       <c r="AR6" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="22">
         <f>IF(X6&lt;&gt;"",SUMPRODUCT((V4:V7=V6)*(AR4:AR7&gt;AR6)*1),0)</f>
@@ -8842,7 +8869,7 @@
       </c>
       <c r="AW6" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y6)*(Matches!K5:K28=Y7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y6)*(Matches!F5:F28=Y7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8890,11 +8917,11 @@
       </c>
       <c r="BI6" s="22">
         <f t="shared" ref="BI6:BI19" si="17">AW6+BG6+BH6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ6" s="22">
         <f>SUMPRODUCT((BI4:BI7=BI6)*(A4:A7&gt;A6)*1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="22">
         <f t="shared" si="14"/>
@@ -8911,7 +8938,7 @@
       <c r="BW6" s="191"/>
       <c r="BX6" s="22"/>
     </row>
-    <row r="7" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>INDEX(M4:M35,MATCH(U7,C4:C35,0),0)</f>
         <v>1455</v>
@@ -8925,7 +8952,7 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8937,7 +8964,7 @@
       </c>
       <c r="G7" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="22">
         <f>SUMIF(Matches!F5:F28,C7,Matches!H5:H28)+SUMIF(Matches!K5:K28,C7,Matches!I5:I28)</f>
@@ -8945,11 +8972,11 @@
       </c>
       <c r="I7" s="22">
         <f>SUMIF(Matches!F5:F28,C7,Matches!I5:I28)+SUMIF(Matches!K5:K28,C7,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" si="4"/>
@@ -8965,15 +8992,15 @@
       </c>
       <c r="N7" s="22">
         <f>RANK(K7,K4:K7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="22">
         <f>SUMPRODUCT((N4:N7=N7)*(J4:J7&gt;J7)*1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="22">
         <f>SUMPRODUCT((N4:N7=N7)*(J4:J7=J7)*(H4:H7&gt;H7)*1)</f>
@@ -8981,7 +9008,7 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7" s="22">
         <f>RANK(R7,R4:R7,1)+COUNTIF(R4:R7,R7)-1</f>
@@ -8996,11 +9023,11 @@
       </c>
       <c r="V7" s="22">
         <f>INDEX(R4:R7,MATCH(U7,C4:C7,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W7" s="22" t="str">
         <f>IF(AND(W6&lt;&gt;"",V7=1),U7,"")</f>
-        <v>Canada</v>
+        <v/>
       </c>
       <c r="X7" s="22" t="str">
         <f>IF(AND(X6&lt;&gt;"",V7=2),U7,"")</f>
@@ -9016,7 +9043,7 @@
       </c>
       <c r="AA7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W6)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W4)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W4)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -9036,7 +9063,7 @@
       </c>
       <c r="AF7" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="22">
         <f>IF(W7&lt;&gt;"",SUMPRODUCT((V4:V7=V7)*(AF4:AF7&gt;AF7)*1),0)</f>
@@ -9056,7 +9083,7 @@
       </c>
       <c r="AK7" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X7)*(Matches!K5:K28=X5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X7)*(Matches!F5:F28=X5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X7)*(Matches!K5:K28=X6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X7)*(Matches!F5:F28=X6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9104,7 +9131,7 @@
       </c>
       <c r="AW7" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y7)*(Matches!K5:K28=Y6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y7)*(Matches!F5:F28=Y6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9152,11 +9179,11 @@
       </c>
       <c r="BI7" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ7" s="22">
         <f>SUMPRODUCT((BI4:BI7=BI7)*(A4:A7&gt;A7)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="22">
         <f t="shared" si="14"/>
@@ -9200,7 +9227,7 @@
       </c>
       <c r="BY7" s="189">
         <f>SUM(Matches!R5:R8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ7" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B8,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>
@@ -10029,7 +10056,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f>INDEX(M4:M35,MATCH(U11,C4:C35,0),0)</f>
         <v>1422</v>
@@ -11145,7 +11172,7 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f>INDEX(M4:M35,MATCH(U15,C4:C35,0),0)</f>
         <v>1271</v>
@@ -12257,7 +12284,7 @@
         <v>Bolivia</v>
       </c>
     </row>
-    <row r="19" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f>INDEX(M4:M35,MATCH(U19,C4:C35,0),0)</f>
         <v>1452</v>
@@ -12662,7 +12689,7 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="23" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="BM23" s="192" t="s">
         <v>64</v>
       </c>
@@ -12800,7 +12827,7 @@
         <v>45473.833333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="BM27" s="192" t="s">
         <v>63</v>
       </c>
@@ -12934,7 +12961,7 @@
         <v>45475.875</v>
       </c>
     </row>
-    <row r="31" spans="1:78" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="BM31" s="192" t="s">
         <v>65</v>
       </c>
@@ -13072,7 +13099,7 @@
         <v>45479.625</v>
       </c>
     </row>
-    <row r="35" spans="65:77" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="65:77" ht="15" x14ac:dyDescent="0.25">
       <c r="BM35" s="192" t="s">
         <v>66</v>
       </c>
@@ -14419,7 +14446,7 @@
       <c r="BW149" s="191"/>
       <c r="BX149" s="22"/>
     </row>
-    <row r="150" spans="65:77" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="65:77" ht="27.6" x14ac:dyDescent="0.25">
       <c r="BT150" s="206" t="s">
         <v>109</v>
       </c>
@@ -14455,7 +14482,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT150" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT150">
       <formula1>Location</formula1>
     </dataValidation>
   </dataValidations>
@@ -14466,20 +14493,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="15.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="9.140625" style="189"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="9" width="15.5546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="22"/>
+    <col min="11" max="11" width="9.109375" style="189"/>
+    <col min="12" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -16761,7 +16788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CR14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16769,13 +16796,13 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:96" s="166" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:96" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:96" s="166" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:96" s="2" customFormat="1" ht="35.4" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>416</v>
       </c>
@@ -16798,12 +16825,12 @@
       <c r="CQ2" s="12"/>
       <c r="CR2" s="12"/>
     </row>
-    <row r="12" spans="2:96" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.25">
       <c r="G12" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:96" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:96" x14ac:dyDescent="0.25">
       <c r="G14" s="188" t="s">
         <v>516</v>
       </c>
@@ -16816,7 +16843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CQ15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16824,18 +16851,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" customWidth="1"/>
-    <col min="10" max="12" width="13.5703125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.5546875" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" customWidth="1"/>
+    <col min="10" max="12" width="13.5546875" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:95" s="156" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -16855,7 +16882,7 @@
       <c r="CP1" s="161"/>
       <c r="CQ1" s="161"/>
     </row>
-    <row r="2" spans="2:95" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:95" s="2" customFormat="1" ht="35.4" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>417</v>
       </c>
@@ -16880,7 +16907,7 @@
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="2:95" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:95" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -16892,7 +16919,7 @@
       <c r="K4" s="105"/>
       <c r="L4" s="106"/>
     </row>
-    <row r="5" spans="2:95" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:95" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B5" s="93"/>
       <c r="C5" s="95" t="s">
         <v>428</v>
@@ -16981,11 +17008,11 @@
       <c r="F10" s="96"/>
       <c r="G10" s="94"/>
       <c r="H10" s="98"/>
-      <c r="J10" s="225" t="s">
+      <c r="J10" s="226" t="s">
         <v>512</v>
       </c>
-      <c r="K10" s="226"/>
-      <c r="L10" s="227"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="228"/>
     </row>
     <row r="11" spans="2:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
@@ -17001,11 +17028,11 @@
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
       <c r="H11" s="98"/>
-      <c r="J11" s="225" t="s">
+      <c r="J11" s="226" t="s">
         <v>513</v>
       </c>
-      <c r="K11" s="226"/>
-      <c r="L11" s="227"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="228"/>
     </row>
     <row r="12" spans="2:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
@@ -17022,7 +17049,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="98"/>
       <c r="J12" s="109"/>
-      <c r="K12" s="228" t="s">
+      <c r="K12" s="229" t="s">
         <v>515</v>
       </c>
       <c r="L12" s="110"/>
@@ -17036,20 +17063,20 @@
       <c r="G13" s="94"/>
       <c r="H13" s="98"/>
       <c r="J13" s="111"/>
-      <c r="K13" s="229"/>
+      <c r="K13" s="230"/>
       <c r="L13" s="112"/>
     </row>
-    <row r="14" spans="2:95" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:95" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="230" t="s">
+    <row r="14" spans="2:95" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:95" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="231" t="s">
         <v>430</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VfMcTVRdHrM27ZHU8pf0F8TnrU5hChMjyP5wRLRNy13A6E1BKvs8QXEdFhXbixXTyYFsvPp5DZvfEGNqXOM9Lw==" saltValue="x1bvol5iN+rPO/O37bmCLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -17060,7 +17087,7 @@
     <mergeCell ref="J10:L10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15:H15" r:id="rId1" display="Get more sport spreadsheets in journalSHEET.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B15:H15" r:id="rId1" display="Get more sport spreadsheets in journalSHEET.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -39,7 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Matches!$B$2:$W$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Setup!$A$4:$F$77</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -3142,48 +3142,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5679,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5750,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="215" t="s">
+      <c r="P2" s="224" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5786,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="216" t="str">
+      <c r="H3" s="225" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="216"/>
+      <c r="I3" s="225"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5836,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="217" t="str">
+      <c r="P4" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="217"/>
+      <c r="Q4" s="215"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -5971,8 +5971,12 @@
         <v>Peru</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
+      <c r="H6" s="115">
+        <v>0</v>
+      </c>
+      <c r="I6" s="116">
+        <v>0</v>
+      </c>
       <c r="J6" s="33"/>
       <c r="K6" s="34" t="str">
         <f>INDEX(Translation,MATCH(Setup!B10,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -5993,7 +5997,7 @@
       </c>
       <c r="R6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6001,7 +6005,7 @@
       </c>
       <c r="T6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,5,FALSE)</f>
@@ -6013,7 +6017,7 @@
       </c>
       <c r="W6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="71"/>
@@ -6049,8 +6053,12 @@
         <v>Ecuador</v>
       </c>
       <c r="G7" s="37"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
+      <c r="H7" s="115">
+        <v>1</v>
+      </c>
+      <c r="I7" s="116">
+        <v>2</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="2" t="str">
         <f>INDEX(Translation,MATCH(Setup!B14,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6069,7 +6077,7 @@
       </c>
       <c r="R7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6077,7 +6085,7 @@
       </c>
       <c r="T7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,5,FALSE)</f>
@@ -6089,7 +6097,7 @@
       </c>
       <c r="W7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="71"/>
@@ -6121,8 +6129,12 @@
         <v>Mexico</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
+      <c r="H8" s="115">
+        <v>1</v>
+      </c>
+      <c r="I8" s="116">
+        <v>0</v>
+      </c>
       <c r="J8" s="33"/>
       <c r="K8" s="34" t="str">
         <f>INDEX(Translation,MATCH(Setup!B15,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6269,11 +6281,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="217" t="str">
+      <c r="P10" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="217"/>
+      <c r="Q10" s="215"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6344,15 +6356,15 @@
       </c>
       <c r="Q11" s="78" t="str">
         <f>INDEX(Calculator!$U$8:$U$11,MATCH(1,Calculator!$BK$8:$BK$11,0),0)</f>
-        <v>Mexico</v>
+        <v>Venezuela</v>
       </c>
       <c r="R11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6364,11 +6376,11 @@
       </c>
       <c r="V11" s="77" t="str">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q11,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 1</v>
       </c>
       <c r="W11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="71"/>
@@ -6424,15 +6436,15 @@
       </c>
       <c r="Q12" s="78" t="str">
         <f>INDEX(Calculator!$U$8:$U$11,MATCH(2,Calculator!$BK$8:$BK$11,0),0)</f>
-        <v>Ecuador</v>
+        <v>Mexico</v>
       </c>
       <c r="R12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6444,11 +6456,11 @@
       </c>
       <c r="V12" s="77" t="str">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q12,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 0</v>
       </c>
       <c r="W12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="71"/>
@@ -6499,11 +6511,11 @@
       </c>
       <c r="Q13" s="39" t="str">
         <f>INDEX(Calculator!$U$8:$U$11,MATCH(3,Calculator!$BK$8:$BK$11,0),0)</f>
-        <v>Venezuela</v>
+        <v>Ecuador</v>
       </c>
       <c r="R13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6515,11 +6527,11 @@
       </c>
       <c r="U13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="38" t="str">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q13,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 2</v>
       </c>
       <c r="W13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6583,7 +6595,7 @@
       </c>
       <c r="R14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6595,11 +6607,11 @@
       </c>
       <c r="U14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="38" t="str">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q14,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 1</v>
       </c>
       <c r="W14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6706,11 +6718,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="217" t="str">
+      <c r="P16" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="217"/>
+      <c r="Q16" s="215"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -7095,11 +7107,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="217" t="str">
+      <c r="P22" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="217"/>
+      <c r="Q22" s="215"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7513,10 +7525,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="220" t="s">
+      <c r="L29" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="220"/>
+      <c r="M29" s="218"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7529,7 +7541,7 @@
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="221" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7569,7 +7581,7 @@
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="224"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7607,7 +7619,7 @@
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="224"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7647,7 +7659,7 @@
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="224"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7687,7 +7699,7 @@
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="225" t="s">
+      <c r="C34" s="223" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7729,7 +7741,7 @@
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7867,175 +7879,175 @@
       <c r="CR38" s="12"/>
     </row>
     <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="222" t="str">
+      <c r="B39" s="220" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="222"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
-      <c r="N39" s="222"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="220"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="218" t="str">
+      <c r="P39" s="216" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="218"/>
-      <c r="R39" s="218"/>
-      <c r="S39" s="218"/>
-      <c r="T39" s="218"/>
-      <c r="U39" s="218"/>
-      <c r="V39" s="218"/>
-      <c r="W39" s="218"/>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="216"/>
+      <c r="S39" s="216"/>
+      <c r="T39" s="216"/>
+      <c r="U39" s="216"/>
+      <c r="V39" s="216"/>
+      <c r="W39" s="216"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="222"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="222"/>
-      <c r="L40" s="222"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="222"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="220"/>
+      <c r="M40" s="220"/>
+      <c r="N40" s="220"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="219" t="str">
+      <c r="P40" s="217" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="219"/>
-      <c r="R40" s="219"/>
-      <c r="S40" s="219"/>
-      <c r="T40" s="219"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="219"/>
-      <c r="W40" s="219"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="222"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="222"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="220"/>
+      <c r="M41" s="220"/>
+      <c r="N41" s="220"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="219"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="219"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="219"/>
-      <c r="U41" s="219"/>
-      <c r="V41" s="219"/>
-      <c r="W41" s="219"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="W41" s="217"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="221" t="str">
+      <c r="B42" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="221"/>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="218" t="str">
+      <c r="P42" s="216" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="218"/>
-      <c r="R42" s="218"/>
-      <c r="S42" s="218"/>
-      <c r="T42" s="218"/>
-      <c r="U42" s="218"/>
-      <c r="V42" s="218"/>
-      <c r="W42" s="218"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="221"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="221"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="219"/>
+      <c r="K43" s="219"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="219"/>
+      <c r="N43" s="219"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="219" t="str">
+      <c r="P43" s="217" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="219"/>
-      <c r="R43" s="219"/>
-      <c r="S43" s="219"/>
-      <c r="T43" s="219"/>
-      <c r="U43" s="219"/>
-      <c r="V43" s="219"/>
-      <c r="W43" s="219"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="217"/>
+      <c r="V43" s="217"/>
+      <c r="W43" s="217"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
     <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="221"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="221"/>
-      <c r="E44" s="221"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="221"/>
-      <c r="I44" s="221"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="P44" s="219"/>
-      <c r="Q44" s="219"/>
-      <c r="R44" s="219"/>
-      <c r="S44" s="219"/>
-      <c r="T44" s="219"/>
-      <c r="U44" s="219"/>
-      <c r="V44" s="219"/>
-      <c r="W44" s="219"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
+      <c r="K44" s="219"/>
+      <c r="L44" s="219"/>
+      <c r="M44" s="219"/>
+      <c r="N44" s="219"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
@@ -8085,6 +8097,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8095,11 +8112,6 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -8453,7 +8465,7 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" ref="D5:D19" si="2">SUM(E5:G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8461,7 +8473,7 @@
       </c>
       <c r="F5" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C5)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8481,7 +8493,7 @@
       </c>
       <c r="K5" s="22">
         <f t="shared" ref="K5:K19" si="4">F5*1+E5*3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="22">
         <f>Setup!E9</f>
@@ -8690,7 +8702,7 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8698,7 +8710,7 @@
       </c>
       <c r="F6" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C6)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8718,7 +8730,7 @@
       </c>
       <c r="K6" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="22">
         <f>Setup!E10</f>
@@ -8992,11 +9004,11 @@
       </c>
       <c r="N7" s="22">
         <f>RANK(K7,K4:K7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" s="22">
         <f>SUMPRODUCT((N4:N7=N7)*(J4:J7&gt;J7)*1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="5"/>
@@ -9227,7 +9239,7 @@
       </c>
       <c r="BY7" s="189">
         <f>SUM(Matches!R5:R8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ7" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B8,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>
@@ -9237,7 +9249,7 @@
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>INDEX(M4:M35,MATCH(U8,C4:C35,0),0)</f>
-        <v>1664</v>
+        <v>1446</v>
       </c>
       <c r="B8" s="22">
         <f>B4</f>
@@ -9249,11 +9261,11 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C8)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C8)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C8)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -9265,7 +9277,7 @@
       </c>
       <c r="H8" s="22">
         <f>SUMIF(Matches!F5:F28,C8,Matches!H5:H28)+SUMIF(Matches!K5:K28,C8,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="22">
         <f>SUMIF(Matches!F5:F28,C8,Matches!I5:I28)+SUMIF(Matches!K5:K28,C8,Matches!H5:H28)</f>
@@ -9273,11 +9285,11 @@
       </c>
       <c r="J8" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="22">
         <f>Setup!E12</f>
@@ -9301,22 +9313,22 @@
       </c>
       <c r="Q8" s="22">
         <f>SUMPRODUCT((N8:N11=N8)*(J8:J11=J8)*(H8:H11&gt;H8)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="22">
         <f>RANK(R8,R8:R11,1)+COUNTIF(R8:R8,R8)-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="22">
         <v>1</v>
       </c>
       <c r="U8" s="22" t="str">
         <f t="shared" ref="U8" si="20">INDEX(C8:C11,MATCH(T8,S8:S11,0),0)</f>
-        <v>Mexico</v>
+        <v>Venezuela</v>
       </c>
       <c r="V8" s="22">
         <f>INDEX(R8:R11,MATCH(U8,C8:C11,0),0)</f>
@@ -9324,7 +9336,7 @@
       </c>
       <c r="W8" s="22" t="str">
         <f t="shared" ref="W8" si="21">IF(V9=1,U8,"")</f>
-        <v>Mexico</v>
+        <v/>
       </c>
       <c r="Z8" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W9)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W9)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9332,7 +9344,7 @@
       </c>
       <c r="AA8" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W9)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W9)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W10)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W10)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W8)*(Matches!K5:K28=W11)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W8)*(Matches!F5:F28=W11)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -9352,7 +9364,7 @@
       </c>
       <c r="AF8" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="22">
         <f t="shared" ref="AG8" si="22">IF(W8&lt;&gt;"",SUMPRODUCT((V8:V11=V8)*(AF8:AF11&gt;AF8)*1),0)</f>
@@ -9498,7 +9510,7 @@
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f>INDEX(M4:M35,MATCH(U9,C4:C35,0),0)</f>
-        <v>1508</v>
+        <v>1664</v>
       </c>
       <c r="B9" s="22">
         <f t="shared" ref="B9:B19" si="25">B5</f>
@@ -9510,7 +9522,7 @@
       </c>
       <c r="D9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C9)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C9)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9522,19 +9534,19 @@
       </c>
       <c r="G9" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C9)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C9)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="22">
         <f>SUMIF(Matches!F5:F28,C9,Matches!H5:H28)+SUMIF(Matches!K5:K28,C9,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="22">
         <f>SUMIF(Matches!F5:F28,C9,Matches!I5:I28)+SUMIF(Matches!K5:K28,C9,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="4"/>
@@ -9550,7 +9562,7 @@
       </c>
       <c r="N9" s="22">
         <f>RANK(K9,K8:K11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="22">
         <f>SUMPRODUCT((N8:N11=N9)*(J8:J11&gt;J9)*1)</f>
@@ -9558,7 +9570,7 @@
       </c>
       <c r="P9" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="22">
         <f>SUMPRODUCT((N8:N11=N9)*(J8:J11=J9)*(H8:H11&gt;H9)*1)</f>
@@ -9566,26 +9578,26 @@
       </c>
       <c r="R9" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" s="22">
         <f>RANK(R9,R8:R11,1)+COUNTIF(R8:R9,R9)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" s="22">
         <v>2</v>
       </c>
       <c r="U9" s="22" t="str">
         <f t="shared" ref="U9" si="26">INDEX(C8:C11,MATCH(T9,S8:S11,0),0)</f>
-        <v>Ecuador</v>
+        <v>Mexico</v>
       </c>
       <c r="V9" s="22">
         <f>INDEX(R8:R11,MATCH(U9,C8:C11,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="22" t="str">
         <f t="shared" ref="W9" si="27">IF(W8&lt;&gt;"",U9,"")</f>
-        <v>Ecuador</v>
+        <v/>
       </c>
       <c r="X9" s="22" t="str">
         <f t="shared" ref="X9" si="28">IF(V10=2,U9,"")</f>
@@ -9597,7 +9609,7 @@
       </c>
       <c r="AA9" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W8)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W8)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W10)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W10)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W9)*(Matches!K5:K28=W11)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W9)*(Matches!F5:F28=W11)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -9617,7 +9629,7 @@
       </c>
       <c r="AF9" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="22">
         <f t="shared" ref="AG9" si="29">IF(W9&lt;&gt;"",SUMPRODUCT((V8:V11=V9)*(AF8:AF11&gt;AF9)*1),0)</f>
@@ -9637,7 +9649,7 @@
       </c>
       <c r="AK9" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X9)*(Matches!K5:K28=X10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X9)*(Matches!F5:F28=X10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X9)*(Matches!K5:K28=X11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X9)*(Matches!F5:F28=X11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9685,7 +9697,7 @@
       </c>
       <c r="AW9" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="22">
         <v>0</v>
@@ -9722,11 +9734,11 @@
       </c>
       <c r="BI9" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ9" s="22">
         <f>SUMPRODUCT((BI8:BI11=BI9)*(A8:A11&gt;A9)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="22">
         <f t="shared" si="14"/>
@@ -9771,7 +9783,7 @@
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f>INDEX(M4:M35,MATCH(U10,C4:C35,0),0)</f>
-        <v>1446</v>
+        <v>1508</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" si="25"/>
@@ -9783,11 +9795,11 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C10)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -9799,19 +9811,19 @@
       </c>
       <c r="H10" s="22">
         <f>SUMIF(Matches!F5:F28,C10,Matches!H5:H28)+SUMIF(Matches!K5:K28,C10,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="22">
         <f>SUMIF(Matches!F5:F28,C10,Matches!I5:I28)+SUMIF(Matches!K5:K28,C10,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="22">
         <f>Setup!E14</f>
@@ -9843,22 +9855,22 @@
       </c>
       <c r="S10" s="22">
         <f>RANK(R10,R8:R11,1)+COUNTIF(R8:R10,R10)-1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" s="22">
         <v>3</v>
       </c>
       <c r="U10" s="22" t="str">
         <f>INDEX(C8:C11,MATCH(T10,S8:S11,0),0)</f>
-        <v>Venezuela</v>
+        <v>Ecuador</v>
       </c>
       <c r="V10" s="22">
         <f>INDEX(R8:R11,MATCH(U10,C8:C11,0),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W10" s="22" t="str">
         <f t="shared" ref="W10:W11" si="35">IF(AND(W9&lt;&gt;"",V10=1),U10,"")</f>
-        <v>Venezuela</v>
+        <v/>
       </c>
       <c r="X10" s="22" t="str">
         <f t="shared" ref="X10" si="36">IF(X9&lt;&gt;"",U10,"")</f>
@@ -9874,7 +9886,7 @@
       </c>
       <c r="AA10" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W11)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W8)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W8)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W9)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W9)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W10)*(Matches!K5:K28=W11)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W10)*(Matches!F5:F28=W11)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -9894,7 +9906,7 @@
       </c>
       <c r="AF10" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="22">
         <f t="shared" ref="AG10" si="38">IF(W10&lt;&gt;"",SUMPRODUCT((V8:V11=V10)*(AF8:AF11&gt;AF10)*1),0)</f>
@@ -9914,7 +9926,7 @@
       </c>
       <c r="AK10" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X10)*(Matches!K5:K28=X9)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X10)*(Matches!F5:F28=X9)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X10)*(Matches!K5:K28=X11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X10)*(Matches!F5:F28=X11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9962,7 +9974,7 @@
       </c>
       <c r="AW10" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y10)*(Matches!K5:K28=Y11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y10)*(Matches!F5:F28=Y11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10010,11 +10022,11 @@
       </c>
       <c r="BI10" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ10" s="22">
         <f>SUMPRODUCT((BI8:BI11=BI10)*(A8:A11&gt;A10)*1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="22">
         <f t="shared" si="14"/>
@@ -10071,7 +10083,7 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10083,7 +10095,7 @@
       </c>
       <c r="G11" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C11)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C11)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="22">
         <f>SUMIF(Matches!F5:F28,C11,Matches!H5:H28)+SUMIF(Matches!K5:K28,C11,Matches!I5:I28)</f>
@@ -10091,11 +10103,11 @@
       </c>
       <c r="I11" s="22">
         <f>SUMIF(Matches!F5:F28,C11,Matches!I5:I28)+SUMIF(Matches!K5:K28,C11,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="4"/>
@@ -10111,7 +10123,7 @@
       </c>
       <c r="N11" s="22">
         <f>RANK(K11,K8:K11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="22">
         <f>SUMPRODUCT((N8:N11=N11)*(J8:J11&gt;J11)*1)</f>
@@ -10119,15 +10131,15 @@
       </c>
       <c r="P11" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="22">
         <f>SUMPRODUCT((N8:N11=N11)*(J8:J11=J11)*(H8:H11&gt;H11)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11" s="22">
         <f>RANK(R11,R8:R11,1)+COUNTIF(R8:R11,R11)-1</f>
@@ -10142,11 +10154,11 @@
       </c>
       <c r="V11" s="22">
         <f>INDEX(R8:R11,MATCH(U11,C8:C11,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W11" s="22" t="str">
         <f t="shared" si="35"/>
-        <v>Jamaica</v>
+        <v/>
       </c>
       <c r="X11" s="22" t="str">
         <f t="shared" ref="X11" si="51">IF(AND(X10&lt;&gt;"",V11=2),U11,"")</f>
@@ -10162,7 +10174,7 @@
       </c>
       <c r="AA11" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W8)*(Matches!H5:H28&gt;=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W8)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W10)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W8)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W8)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W9)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W9)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W11)*(Matches!K5:K28=W10)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W11)*(Matches!F5:F28=W10)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -10182,7 +10194,7 @@
       </c>
       <c r="AF11" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="22">
         <f t="shared" ref="AG11" si="53">IF(W11&lt;&gt;"",SUMPRODUCT((V8:V11=V11)*(AF8:AF11&gt;AF11)*1),0)</f>
@@ -10202,7 +10214,7 @@
       </c>
       <c r="AK11" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X11)*(Matches!K5:K28=X9)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X11)*(Matches!F5:F28=X9)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X11)*(Matches!K5:K28=X10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X11)*(Matches!F5:F28=X10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10250,7 +10262,7 @@
       </c>
       <c r="AW11" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y11)*(Matches!K5:K28=Y10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y11)*(Matches!F5:F28=Y10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10298,11 +10310,11 @@
       </c>
       <c r="BI11" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ11" s="22">
         <f>SUMPRODUCT((BI8:BI11=BI11)*(A8:A11&gt;A11)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="22">
         <f t="shared" si="14"/>
@@ -10877,7 +10889,7 @@
       </c>
       <c r="BY13" s="189">
         <f>SUM(Matches!R11:R14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ13" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B14,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>

--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -3142,6 +3142,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection hidden="1"/>
@@ -3176,14 +3184,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5677,9 +5677,9 @@
   <dimension ref="A1:CR168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5750,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="224" t="s">
+      <c r="P2" s="215" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5786,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="225" t="str">
+      <c r="H3" s="216" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="225"/>
+      <c r="I3" s="216"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5836,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="215" t="str">
+      <c r="P4" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="215"/>
+      <c r="Q4" s="217"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -6213,8 +6213,12 @@
         <v>United States</v>
       </c>
       <c r="G9" s="37"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="115">
+        <v>2</v>
+      </c>
+      <c r="I9" s="116">
+        <v>0</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="2" t="str">
         <f>INDEX(Translation,MATCH(Setup!B19,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6268,8 +6272,12 @@
         <v>Uruguay</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
+      <c r="H10" s="115">
+        <v>3</v>
+      </c>
+      <c r="I10" s="116">
+        <v>1</v>
+      </c>
       <c r="J10" s="33"/>
       <c r="K10" s="34" t="str">
         <f>INDEX(Translation,MATCH(Setup!B18,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6281,11 +6289,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="215" t="str">
+      <c r="P10" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="215"/>
+      <c r="Q10" s="217"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6718,11 +6726,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="215" t="str">
+      <c r="P16" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="215"/>
+      <c r="Q16" s="217"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -6784,15 +6792,15 @@
       </c>
       <c r="Q17" s="80" t="str">
         <f>INDEX(Calculator!$U$12:$U$15,MATCH(1,Calculator!$BK$12:$BK$15,0),0)</f>
-        <v>United States</v>
+        <v>Uruguay</v>
       </c>
       <c r="R17" s="79">
         <f>VLOOKUP($Q17,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="79">
         <f>VLOOKUP($Q17,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="79">
         <f>VLOOKUP($Q17,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6804,11 +6812,11 @@
       </c>
       <c r="V17" s="79" t="str">
         <f>VLOOKUP($Q17,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q17,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 1</v>
       </c>
       <c r="W17" s="79">
         <f>VLOOKUP($Q17,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="71"/>
@@ -6855,15 +6863,15 @@
       </c>
       <c r="Q18" s="80" t="str">
         <f>INDEX(Calculator!$U$12:$U$15,MATCH(2,Calculator!$BK$12:$BK$15,0),0)</f>
-        <v>Uruguay</v>
+        <v>United States</v>
       </c>
       <c r="R18" s="79">
         <f>VLOOKUP($Q18,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="79">
         <f>VLOOKUP($Q18,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="79">
         <f>VLOOKUP($Q18,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6875,11 +6883,11 @@
       </c>
       <c r="V18" s="79" t="str">
         <f>VLOOKUP($Q18,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q18,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 0</v>
       </c>
       <c r="W18" s="79">
         <f>VLOOKUP($Q18,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="71"/>
@@ -6928,7 +6936,7 @@
       </c>
       <c r="R19" s="38">
         <f>VLOOKUP($Q19,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="38">
         <f>VLOOKUP($Q19,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6940,11 +6948,11 @@
       </c>
       <c r="U19" s="38">
         <f>VLOOKUP($Q19,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="38" t="str">
         <f>VLOOKUP($Q19,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q19,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 3</v>
       </c>
       <c r="W19" s="38">
         <f>VLOOKUP($Q19,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6999,7 +7007,7 @@
       </c>
       <c r="R20" s="38">
         <f>VLOOKUP($Q20,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="38">
         <f>VLOOKUP($Q20,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -7011,11 +7019,11 @@
       </c>
       <c r="U20" s="38">
         <f>VLOOKUP($Q20,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="38" t="str">
         <f>VLOOKUP($Q20,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q20,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 2</v>
       </c>
       <c r="W20" s="38">
         <f>VLOOKUP($Q20,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -7107,11 +7115,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="215" t="str">
+      <c r="P22" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="215"/>
+      <c r="Q22" s="217"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7525,10 +7533,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="218" t="s">
+      <c r="L29" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="218"/>
+      <c r="M29" s="220"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7541,7 +7549,7 @@
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="223" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7581,7 +7589,7 @@
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="222"/>
+      <c r="C31" s="224"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7619,7 +7627,7 @@
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="222"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7659,7 +7667,7 @@
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="224"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7699,7 +7707,7 @@
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="223" t="s">
+      <c r="C34" s="225" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7741,7 +7749,7 @@
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="225"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7879,175 +7887,175 @@
       <c r="CR38" s="12"/>
     </row>
     <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="220" t="str">
+      <c r="B39" s="222" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="220"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222"/>
+      <c r="N39" s="222"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="216" t="str">
+      <c r="P39" s="218" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="216"/>
-      <c r="R39" s="216"/>
-      <c r="S39" s="216"/>
-      <c r="T39" s="216"/>
-      <c r="U39" s="216"/>
-      <c r="V39" s="216"/>
-      <c r="W39" s="216"/>
+      <c r="Q39" s="218"/>
+      <c r="R39" s="218"/>
+      <c r="S39" s="218"/>
+      <c r="T39" s="218"/>
+      <c r="U39" s="218"/>
+      <c r="V39" s="218"/>
+      <c r="W39" s="218"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="220"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="220"/>
-      <c r="I40" s="220"/>
-      <c r="J40" s="220"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="220"/>
-      <c r="M40" s="220"/>
-      <c r="N40" s="220"/>
+      <c r="B40" s="222"/>
+      <c r="C40" s="222"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="222"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="217" t="str">
+      <c r="P40" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
-      <c r="S40" s="217"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="217"/>
-      <c r="V40" s="217"/>
-      <c r="W40" s="217"/>
+      <c r="Q40" s="219"/>
+      <c r="R40" s="219"/>
+      <c r="S40" s="219"/>
+      <c r="T40" s="219"/>
+      <c r="U40" s="219"/>
+      <c r="V40" s="219"/>
+      <c r="W40" s="219"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="220"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="220"/>
-      <c r="K41" s="220"/>
-      <c r="L41" s="220"/>
-      <c r="M41" s="220"/>
-      <c r="N41" s="220"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222"/>
+      <c r="M41" s="222"/>
+      <c r="N41" s="222"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="217"/>
-      <c r="Q41" s="217"/>
-      <c r="R41" s="217"/>
-      <c r="S41" s="217"/>
-      <c r="T41" s="217"/>
-      <c r="U41" s="217"/>
-      <c r="V41" s="217"/>
-      <c r="W41" s="217"/>
+      <c r="P41" s="219"/>
+      <c r="Q41" s="219"/>
+      <c r="R41" s="219"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="219"/>
+      <c r="U41" s="219"/>
+      <c r="V41" s="219"/>
+      <c r="W41" s="219"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="219" t="str">
+      <c r="B42" s="221" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="221"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="216" t="str">
+      <c r="P42" s="218" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="216"/>
-      <c r="R42" s="216"/>
-      <c r="S42" s="216"/>
-      <c r="T42" s="216"/>
-      <c r="U42" s="216"/>
-      <c r="V42" s="216"/>
-      <c r="W42" s="216"/>
+      <c r="Q42" s="218"/>
+      <c r="R42" s="218"/>
+      <c r="S42" s="218"/>
+      <c r="T42" s="218"/>
+      <c r="U42" s="218"/>
+      <c r="V42" s="218"/>
+      <c r="W42" s="218"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="219"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="221"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="217" t="str">
+      <c r="P43" s="219" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="217"/>
-      <c r="R43" s="217"/>
-      <c r="S43" s="217"/>
-      <c r="T43" s="217"/>
-      <c r="U43" s="217"/>
-      <c r="V43" s="217"/>
-      <c r="W43" s="217"/>
+      <c r="Q43" s="219"/>
+      <c r="R43" s="219"/>
+      <c r="S43" s="219"/>
+      <c r="T43" s="219"/>
+      <c r="U43" s="219"/>
+      <c r="V43" s="219"/>
+      <c r="W43" s="219"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
     <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
-      <c r="K44" s="219"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="219"/>
-      <c r="P44" s="217"/>
-      <c r="Q44" s="217"/>
-      <c r="R44" s="217"/>
-      <c r="S44" s="217"/>
-      <c r="T44" s="217"/>
-      <c r="U44" s="217"/>
-      <c r="V44" s="217"/>
-      <c r="W44" s="217"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="221"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="219"/>
+      <c r="R44" s="219"/>
+      <c r="S44" s="219"/>
+      <c r="T44" s="219"/>
+      <c r="U44" s="219"/>
+      <c r="V44" s="219"/>
+      <c r="W44" s="219"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
@@ -8097,11 +8105,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8112,6 +8115,11 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -10361,7 +10369,7 @@
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f>INDEX(M4:M35,MATCH(U12,C4:C35,0),0)</f>
-        <v>1676</v>
+        <v>1644</v>
       </c>
       <c r="B12" s="22">
         <f t="shared" si="25"/>
@@ -10373,11 +10381,11 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C12)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C12)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C12)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -10389,7 +10397,7 @@
       </c>
       <c r="H12" s="22">
         <f>SUMIF(Matches!F5:F28,C12,Matches!H5:H28)+SUMIF(Matches!K5:K28,C12,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="22">
         <f>SUMIF(Matches!F5:F28,C12,Matches!I5:I28)+SUMIF(Matches!K5:K28,C12,Matches!H5:H28)</f>
@@ -10397,11 +10405,11 @@
       </c>
       <c r="J12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="22">
         <f>Setup!E16</f>
@@ -10425,22 +10433,22 @@
       </c>
       <c r="Q12" s="22">
         <f>SUMPRODUCT((N12:N15=N12)*(J12:J15=J12)*(H12:H15&gt;H12)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="22">
         <f>RANK(R12,R12:R15,1)+COUNTIF(R12:R12,R12)-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="22">
         <v>1</v>
       </c>
       <c r="U12" s="22" t="str">
         <f t="shared" ref="U12" si="62">INDEX(C12:C15,MATCH(T12,S12:S15,0),0)</f>
-        <v>United States</v>
+        <v>Uruguay</v>
       </c>
       <c r="V12" s="22">
         <f>INDEX(R12:R15,MATCH(U12,C12:C15,0),0)</f>
@@ -10448,7 +10456,7 @@
       </c>
       <c r="W12" s="22" t="str">
         <f t="shared" ref="W12" si="63">IF(V13=1,U12,"")</f>
-        <v>United States</v>
+        <v/>
       </c>
       <c r="Z12" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W13)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W13)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W14)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W14)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W15)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W15)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10456,7 +10464,7 @@
       </c>
       <c r="AA12" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W13)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W13)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W14)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W14)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W12)*(Matches!K5:K28=W15)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W12)*(Matches!F5:F28=W15)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -10476,7 +10484,7 @@
       </c>
       <c r="AF12" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="22">
         <f t="shared" ref="AG12" si="64">IF(W12&lt;&gt;"",SUMPRODUCT((V12:V15=V12)*(AF12:AF15&gt;AF12)*1),0)</f>
@@ -10622,7 +10630,7 @@
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f>INDEX(M4:M35,MATCH(U13,C4:C35,0),0)</f>
-        <v>1644</v>
+        <v>1676</v>
       </c>
       <c r="B13" s="22">
         <f t="shared" si="25"/>
@@ -10634,11 +10642,11 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C13)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C13)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C13)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -10650,19 +10658,19 @@
       </c>
       <c r="H13" s="22">
         <f>SUMIF(Matches!F5:F28,C13,Matches!H5:H28)+SUMIF(Matches!K5:K28,C13,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="22">
         <f>SUMIF(Matches!F5:F28,C13,Matches!I5:I28)+SUMIF(Matches!K5:K28,C13,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="22">
         <f>Setup!E17</f>
@@ -10694,22 +10702,22 @@
       </c>
       <c r="S13" s="22">
         <f>RANK(R13,R12:R15,1)+COUNTIF(R12:R13,R13)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="22">
         <v>2</v>
       </c>
       <c r="U13" s="22" t="str">
         <f t="shared" ref="U13" si="67">INDEX(C12:C15,MATCH(T13,S12:S15,0),0)</f>
-        <v>Uruguay</v>
+        <v>United States</v>
       </c>
       <c r="V13" s="22">
         <f>INDEX(R12:R15,MATCH(U13,C12:C15,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="22" t="str">
         <f t="shared" ref="W13" si="68">IF(W12&lt;&gt;"",U13,"")</f>
-        <v>Uruguay</v>
+        <v/>
       </c>
       <c r="X13" s="22" t="str">
         <f t="shared" ref="X13" si="69">IF(V14=2,U13,"")</f>
@@ -10721,7 +10729,7 @@
       </c>
       <c r="AA13" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W12)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W12)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W14)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W14)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W13)*(Matches!K5:K28=W15)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W13)*(Matches!F5:F28=W15)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -10741,7 +10749,7 @@
       </c>
       <c r="AF13" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="22">
         <f t="shared" ref="AG13" si="70">IF(W13&lt;&gt;"",SUMPRODUCT((V12:V15=V13)*(AF12:AF15&gt;AF13)*1),0)</f>
@@ -10761,7 +10769,7 @@
       </c>
       <c r="AK13" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X13)*(Matches!K5:K28=X14)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X13)*(Matches!F5:F28=X14)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X13)*(Matches!K5:K28=X15)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X13)*(Matches!F5:F28=X15)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10809,7 +10817,7 @@
       </c>
       <c r="AW13" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="22">
         <v>0</v>
@@ -10846,11 +10854,11 @@
       </c>
       <c r="BI13" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ13" s="22">
         <f>SUMPRODUCT((BI12:BI15=BI13)*(A12:A15&gt;A13)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="22">
         <f t="shared" si="14"/>
@@ -10911,7 +10919,7 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C14)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C14)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10923,19 +10931,19 @@
       </c>
       <c r="G14" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C14)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C14)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="22">
         <f>SUMIF(Matches!F5:F28,C14,Matches!H5:H28)+SUMIF(Matches!K5:K28,C14,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="22">
         <f>SUMIF(Matches!F5:F28,C14,Matches!I5:I28)+SUMIF(Matches!K5:K28,C14,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="4"/>
@@ -10951,7 +10959,7 @@
       </c>
       <c r="N14" s="22">
         <f>RANK(K14,K12:K15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="22">
         <f>SUMPRODUCT((N12:N15=N14)*(J12:J15&gt;J14)*1)</f>
@@ -10959,7 +10967,7 @@
       </c>
       <c r="P14" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="22">
         <f>SUMPRODUCT((N12:N15=N14)*(J12:J15=J14)*(H12:H15&gt;H14)*1)</f>
@@ -10967,7 +10975,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="22">
         <f>RANK(R14,R12:R15,1)+COUNTIF(R12:R14,R14)-1</f>
@@ -10982,11 +10990,11 @@
       </c>
       <c r="V14" s="22">
         <f>INDEX(R12:R15,MATCH(U14,C12:C15,0),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14" s="22" t="str">
         <f t="shared" ref="W14:W15" si="77">IF(AND(W13&lt;&gt;"",V14=1),U14,"")</f>
-        <v>Panama</v>
+        <v/>
       </c>
       <c r="X14" s="22" t="str">
         <f t="shared" ref="X14" si="78">IF(X13&lt;&gt;"",U14,"")</f>
@@ -11002,7 +11010,7 @@
       </c>
       <c r="AA14" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W15)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W12)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W12)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W13)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W13)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W14)*(Matches!K5:K28=W15)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W14)*(Matches!F5:F28=W15)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11022,7 +11030,7 @@
       </c>
       <c r="AF14" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="22">
         <f t="shared" ref="AG14" si="80">IF(W14&lt;&gt;"",SUMPRODUCT((V12:V15=V14)*(AF12:AF15&gt;AF14)*1),0)</f>
@@ -11042,7 +11050,7 @@
       </c>
       <c r="AK14" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL14" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X14)*(Matches!K5:K28=X13)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X14)*(Matches!F5:F28=X13)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X14)*(Matches!K5:K28=X15)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X14)*(Matches!F5:F28=X15)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11090,7 +11098,7 @@
       </c>
       <c r="AW14" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y14)*(Matches!K5:K28=Y15)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y14)*(Matches!F5:F28=Y15)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11138,11 +11146,11 @@
       </c>
       <c r="BI14" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ14" s="22">
         <f>SUMPRODUCT((BI12:BI15=BI14)*(A12:A15&gt;A14)*1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="22">
         <f t="shared" si="14"/>
@@ -11199,7 +11207,7 @@
       </c>
       <c r="D15" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C15)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C15)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11211,7 +11219,7 @@
       </c>
       <c r="G15" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C15)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C15)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="22">
         <f>SUMIF(Matches!F5:F28,C15,Matches!H5:H28)+SUMIF(Matches!K5:K28,C15,Matches!I5:I28)</f>
@@ -11219,11 +11227,11 @@
       </c>
       <c r="I15" s="22">
         <f>SUMIF(Matches!F5:F28,C15,Matches!I5:I28)+SUMIF(Matches!K5:K28,C15,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="4"/>
@@ -11239,7 +11247,7 @@
       </c>
       <c r="N15" s="22">
         <f>RANK(K15,K12:K15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="22">
         <f>SUMPRODUCT((N12:N15=N15)*(J12:J15&gt;J15)*1)</f>
@@ -11247,15 +11255,15 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="22">
         <f>SUMPRODUCT((N12:N15=N15)*(J12:J15=J15)*(H12:H15&gt;H15)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" s="22">
         <f>RANK(R15,R12:R15,1)+COUNTIF(R12:R15,R15)-1</f>
@@ -11270,11 +11278,11 @@
       </c>
       <c r="V15" s="22">
         <f>INDEX(R12:R15,MATCH(U15,C12:C15,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W15" s="22" t="str">
         <f t="shared" si="77"/>
-        <v>Bolivia</v>
+        <v/>
       </c>
       <c r="X15" s="22" t="str">
         <f t="shared" ref="X15" si="93">IF(AND(X14&lt;&gt;"",V15=2),U15,"")</f>
@@ -11290,7 +11298,7 @@
       </c>
       <c r="AA15" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W12)*(Matches!H5:H28&gt;=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W12)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W13)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W14)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W12)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W12)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W13)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W13)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W15)*(Matches!K5:K28=W14)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W15)*(Matches!F5:F28=W14)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11310,7 +11318,7 @@
       </c>
       <c r="AF15" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="22">
         <f t="shared" ref="AG15" si="95">IF(W15&lt;&gt;"",SUMPRODUCT((V12:V15=V15)*(AF12:AF15&gt;AF15)*1),0)</f>
@@ -11330,7 +11338,7 @@
       </c>
       <c r="AK15" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X15)*(Matches!K5:K28=X13)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X15)*(Matches!F5:F28=X13)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X15)*(Matches!K5:K28=X14)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X15)*(Matches!F5:F28=X14)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11378,7 +11386,7 @@
       </c>
       <c r="AW15" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y15)*(Matches!K5:K28=Y14)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y15)*(Matches!F5:F28=Y14)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11426,11 +11434,11 @@
       </c>
       <c r="BI15" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ15" s="22">
         <f>SUMPRODUCT((BI12:BI15=BI15)*(A12:A15&gt;A15)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="22">
         <f t="shared" si="14"/>
@@ -12583,7 +12591,7 @@
       </c>
       <c r="BY19" s="189">
         <f>SUM(Matches!R17:R20)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ19" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B20,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>

--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -3142,48 +3142,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5679,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5750,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="215" t="s">
+      <c r="P2" s="224" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5786,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="216" t="str">
+      <c r="H3" s="225" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="216"/>
+      <c r="I3" s="225"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5836,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="217" t="str">
+      <c r="P4" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="217"/>
+      <c r="Q4" s="215"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -6289,11 +6289,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="217" t="str">
+      <c r="P10" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="217"/>
+      <c r="Q10" s="215"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6348,8 +6348,12 @@
         <v>Colombia</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+      <c r="H11" s="115">
+        <v>2</v>
+      </c>
+      <c r="I11" s="116">
+        <v>1</v>
+      </c>
       <c r="J11" s="37"/>
       <c r="K11" s="2" t="str">
         <f>INDEX(Translation,MATCH(Setup!B22,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6426,8 +6430,12 @@
         <v>Brazil</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="116"/>
+      <c r="H12" s="115">
+        <v>0</v>
+      </c>
+      <c r="I12" s="116">
+        <v>0</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="34" t="str">
         <f>INDEX(Translation,MATCH(Setup!B23,TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
@@ -6726,11 +6734,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="217" t="str">
+      <c r="P16" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="217"/>
+      <c r="Q16" s="215"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -7115,11 +7123,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="217" t="str">
+      <c r="P22" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="217"/>
+      <c r="Q22" s="215"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7181,15 +7189,15 @@
       </c>
       <c r="Q23" s="82" t="str">
         <f>INDEX(Calculator!$U$16:$U$19,MATCH(1,Calculator!$BK$16:$BK$19,0),0)</f>
-        <v>Brazil</v>
+        <v>Colombia</v>
       </c>
       <c r="R23" s="81">
         <f>VLOOKUP($Q23,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="81">
         <f>VLOOKUP($Q23,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="81">
         <f>VLOOKUP($Q23,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -7201,11 +7209,11 @@
       </c>
       <c r="V23" s="81" t="str">
         <f>VLOOKUP($Q23,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q23,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 1</v>
       </c>
       <c r="W23" s="81">
         <f>VLOOKUP($Q23,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="71"/>
@@ -7252,11 +7260,11 @@
       </c>
       <c r="Q24" s="82" t="str">
         <f>INDEX(Calculator!$U$16:$U$19,MATCH(2,Calculator!$BK$16:$BK$19,0),0)</f>
-        <v>Colombia</v>
+        <v>Brazil</v>
       </c>
       <c r="R24" s="81">
         <f>VLOOKUP($Q24,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="81">
         <f>VLOOKUP($Q24,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -7264,7 +7272,7 @@
       </c>
       <c r="T24" s="81">
         <f>VLOOKUP($Q24,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="81">
         <f>VLOOKUP($Q24,Calculator!$C$4:$K$35,5,FALSE)</f>
@@ -7276,7 +7284,7 @@
       </c>
       <c r="W24" s="81">
         <f>VLOOKUP($Q24,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="8"/>
       <c r="Y24" s="71"/>
@@ -7325,7 +7333,7 @@
       </c>
       <c r="R25" s="38">
         <f>VLOOKUP($Q25,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="38">
         <f>VLOOKUP($Q25,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -7333,7 +7341,7 @@
       </c>
       <c r="T25" s="38">
         <f>VLOOKUP($Q25,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="38">
         <f>VLOOKUP($Q25,Calculator!$C$4:$K$35,5,FALSE)</f>
@@ -7345,7 +7353,7 @@
       </c>
       <c r="W25" s="38">
         <f>VLOOKUP($Q25,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="8"/>
       <c r="Y25" s="71"/>
@@ -7396,7 +7404,7 @@
       </c>
       <c r="R26" s="38">
         <f>VLOOKUP($Q26,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="38">
         <f>VLOOKUP($Q26,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -7408,11 +7416,11 @@
       </c>
       <c r="U26" s="38">
         <f>VLOOKUP($Q26,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="38" t="str">
         <f>VLOOKUP($Q26,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q26,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 2</v>
       </c>
       <c r="W26" s="38">
         <f>VLOOKUP($Q26,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -7533,10 +7541,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="220" t="s">
+      <c r="L29" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="220"/>
+      <c r="M29" s="218"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7549,7 +7557,7 @@
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="221" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7589,7 +7597,7 @@
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="224"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7627,7 +7635,7 @@
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="224"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7667,7 +7675,7 @@
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="224"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7707,7 +7715,7 @@
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="225" t="s">
+      <c r="C34" s="223" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7749,7 +7757,7 @@
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7887,175 +7895,175 @@
       <c r="CR38" s="12"/>
     </row>
     <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="222" t="str">
+      <c r="B39" s="220" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="222"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
-      <c r="N39" s="222"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="220"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="218" t="str">
+      <c r="P39" s="216" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="218"/>
-      <c r="R39" s="218"/>
-      <c r="S39" s="218"/>
-      <c r="T39" s="218"/>
-      <c r="U39" s="218"/>
-      <c r="V39" s="218"/>
-      <c r="W39" s="218"/>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="216"/>
+      <c r="S39" s="216"/>
+      <c r="T39" s="216"/>
+      <c r="U39" s="216"/>
+      <c r="V39" s="216"/>
+      <c r="W39" s="216"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="222"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="222"/>
-      <c r="L40" s="222"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="222"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="220"/>
+      <c r="M40" s="220"/>
+      <c r="N40" s="220"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="219" t="str">
+      <c r="P40" s="217" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="219"/>
-      <c r="R40" s="219"/>
-      <c r="S40" s="219"/>
-      <c r="T40" s="219"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="219"/>
-      <c r="W40" s="219"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="222"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="222"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="220"/>
+      <c r="M41" s="220"/>
+      <c r="N41" s="220"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="219"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="219"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="219"/>
-      <c r="U41" s="219"/>
-      <c r="V41" s="219"/>
-      <c r="W41" s="219"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="W41" s="217"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="221" t="str">
+      <c r="B42" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="221"/>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="218" t="str">
+      <c r="P42" s="216" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="218"/>
-      <c r="R42" s="218"/>
-      <c r="S42" s="218"/>
-      <c r="T42" s="218"/>
-      <c r="U42" s="218"/>
-      <c r="V42" s="218"/>
-      <c r="W42" s="218"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="221"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="221"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="219"/>
+      <c r="K43" s="219"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="219"/>
+      <c r="N43" s="219"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="219" t="str">
+      <c r="P43" s="217" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="219"/>
-      <c r="R43" s="219"/>
-      <c r="S43" s="219"/>
-      <c r="T43" s="219"/>
-      <c r="U43" s="219"/>
-      <c r="V43" s="219"/>
-      <c r="W43" s="219"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="217"/>
+      <c r="V43" s="217"/>
+      <c r="W43" s="217"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
     <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="221"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="221"/>
-      <c r="E44" s="221"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="221"/>
-      <c r="I44" s="221"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="P44" s="219"/>
-      <c r="Q44" s="219"/>
-      <c r="R44" s="219"/>
-      <c r="S44" s="219"/>
-      <c r="T44" s="219"/>
-      <c r="U44" s="219"/>
-      <c r="V44" s="219"/>
-      <c r="W44" s="219"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
+      <c r="K44" s="219"/>
+      <c r="L44" s="219"/>
+      <c r="M44" s="219"/>
+      <c r="N44" s="219"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
@@ -8105,6 +8113,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8115,11 +8128,6 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -11485,7 +11493,7 @@
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <f>INDEX(M4:M35,MATCH(U16,C4:C35,0),0)</f>
-        <v>1812</v>
+        <v>1627</v>
       </c>
       <c r="B16" s="22">
         <f t="shared" si="25"/>
@@ -11497,7 +11505,7 @@
       </c>
       <c r="D16" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C16)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C16)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11505,7 +11513,7 @@
       </c>
       <c r="F16" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C16)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C16)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C16)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11525,7 +11533,7 @@
       </c>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="22">
         <f>Setup!E20</f>
@@ -11537,7 +11545,7 @@
       </c>
       <c r="N16" s="22">
         <f>RANK(K16,K16:K19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="22">
         <f>SUMPRODUCT((N16:N19=N16)*(J16:J19&gt;J16)*1)</f>
@@ -11545,7 +11553,7 @@
       </c>
       <c r="P16" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="22">
         <f>SUMPRODUCT((N16:N19=N16)*(J16:J19=J16)*(H16:H19&gt;H16)*1)</f>
@@ -11553,18 +11561,18 @@
       </c>
       <c r="R16" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="22">
         <f>RANK(R16,R16:R19,1)+COUNTIF(R16:R16,R16)-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="22">
         <v>1</v>
       </c>
       <c r="U16" s="22" t="str">
         <f t="shared" ref="U16" si="104">INDEX(C16:C19,MATCH(T16,S16:S19,0),0)</f>
-        <v>Brazil</v>
+        <v>Colombia</v>
       </c>
       <c r="V16" s="22">
         <f>INDEX(R16:R19,MATCH(U16,C16:C19,0),0)</f>
@@ -11572,7 +11580,7 @@
       </c>
       <c r="W16" s="22" t="str">
         <f t="shared" ref="W16" si="105">IF(V17=1,U16,"")</f>
-        <v>Brazil</v>
+        <v/>
       </c>
       <c r="Z16" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W17)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W17)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11580,7 +11588,7 @@
       </c>
       <c r="AA16" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W17)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W17)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W18)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W18)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W16)*(Matches!K5:K28=W19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W16)*(Matches!F5:F28=W19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11600,7 +11608,7 @@
       </c>
       <c r="AF16" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="22">
         <f t="shared" ref="AG16" si="106">IF(W16&lt;&gt;"",SUMPRODUCT((V16:V19=V16)*(AF16:AF19&gt;AF16)*1),0)</f>
@@ -11746,7 +11754,7 @@
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <f>INDEX(M4:M35,MATCH(U17,C4:C35,0),0)</f>
-        <v>1627</v>
+        <v>1812</v>
       </c>
       <c r="B17" s="22">
         <f t="shared" si="25"/>
@@ -11758,11 +11766,11 @@
       </c>
       <c r="D17" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C17)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C17)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C17)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -11774,19 +11782,19 @@
       </c>
       <c r="H17" s="22">
         <f>SUMIF(Matches!F5:F28,C17,Matches!H5:H28)+SUMIF(Matches!K5:K28,C17,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="22">
         <f>SUMIF(Matches!F5:F28,C17,Matches!I5:I28)+SUMIF(Matches!K5:K28,C17,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="22">
         <f>Setup!E21</f>
@@ -11818,26 +11826,26 @@
       </c>
       <c r="S17" s="22">
         <f>RANK(R17,R16:R19,1)+COUNTIF(R16:R17,R17)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22">
         <v>2</v>
       </c>
       <c r="U17" s="22" t="str">
         <f t="shared" ref="U17" si="109">INDEX(C16:C19,MATCH(T17,S16:S19,0),0)</f>
-        <v>Colombia</v>
+        <v>Brazil</v>
       </c>
       <c r="V17" s="22">
         <f>INDEX(R16:R19,MATCH(U17,C16:C19,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="22" t="str">
         <f t="shared" ref="W17" si="110">IF(W16&lt;&gt;"",U17,"")</f>
-        <v>Colombia</v>
+        <v/>
       </c>
       <c r="X17" s="22" t="str">
         <f t="shared" ref="X17" si="111">IF(V18=2,U17,"")</f>
-        <v/>
+        <v>Brazil</v>
       </c>
       <c r="Z17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W16)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W16)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11845,7 +11853,7 @@
       </c>
       <c r="AA17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W16)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W16)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W18)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W18)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W17)*(Matches!K5:K28=W19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W17)*(Matches!F5:F28=W19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11865,7 +11873,7 @@
       </c>
       <c r="AF17" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="22">
         <f t="shared" ref="AG17" si="112">IF(W17&lt;&gt;"",SUMPRODUCT((V16:V19=V17)*(AF16:AF19&gt;AF17)*1),0)</f>
@@ -11885,7 +11893,7 @@
       </c>
       <c r="AK17" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -11893,7 +11901,7 @@
       </c>
       <c r="AM17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X18)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X18)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X17)*(Matches!K5:K28=X19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X17)*(Matches!F5:F28=X19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -11913,7 +11921,7 @@
       </c>
       <c r="AR17" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="22">
         <f t="shared" ref="AS17" si="115">IF(X17&lt;&gt;"",SUMPRODUCT((V16:V19=V17)*(AR16:AR19&gt;AR17)*1),0)</f>
@@ -11933,7 +11941,7 @@
       </c>
       <c r="AW17" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="22">
         <v>0</v>
@@ -11970,11 +11978,11 @@
       </c>
       <c r="BI17" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ17" s="22">
         <f>SUMPRODUCT((BI16:BI19=BI17)*(A16:A19&gt;A17)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="22">
         <f t="shared" si="14"/>
@@ -12019,7 +12027,7 @@
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f>INDEX(M4:M35,MATCH(U18,C4:C35,0),0)</f>
-        <v>1437</v>
+        <v>1452</v>
       </c>
       <c r="B18" s="22">
         <f t="shared" si="25"/>
@@ -12031,7 +12039,7 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12043,19 +12051,19 @@
       </c>
       <c r="G18" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C18)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C18)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="22">
         <f>SUMIF(Matches!F5:F28,C18,Matches!H5:H28)+SUMIF(Matches!K5:K28,C18,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="22">
         <f>SUMIF(Matches!F5:F28,C18,Matches!I5:I28)+SUMIF(Matches!K5:K28,C18,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="4"/>
@@ -12071,7 +12079,7 @@
       </c>
       <c r="N18" s="22">
         <f>RANK(K18,K16:K19)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O18" s="22">
         <f>SUMPRODUCT((N16:N19=N18)*(J16:J19&gt;J18)*1)</f>
@@ -12079,7 +12087,7 @@
       </c>
       <c r="P18" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="22">
         <f>SUMPRODUCT((N16:N19=N18)*(J16:J19=J18)*(H16:H19&gt;H18)*1)</f>
@@ -12087,30 +12095,30 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" s="22">
         <f>RANK(R18,R16:R19,1)+COUNTIF(R16:R18,R18)-1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" s="22">
         <v>3</v>
       </c>
       <c r="U18" s="22" t="str">
         <f t="shared" ref="U18" si="118">INDEX(C16:C19,MATCH(T18,S16:S19,0),0)</f>
-        <v>Paraguay</v>
+        <v>Costa Rica</v>
       </c>
       <c r="V18" s="22">
         <f>INDEX(R16:R19,MATCH(U18,C16:C19,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="22" t="str">
         <f t="shared" ref="W18:W19" si="119">IF(AND(W17&lt;&gt;"",V18=1),U18,"")</f>
-        <v>Paraguay</v>
+        <v/>
       </c>
       <c r="X18" s="22" t="str">
         <f t="shared" ref="X18" si="120">IF(X17&lt;&gt;"",U18,"")</f>
-        <v/>
+        <v>Costa Rica</v>
       </c>
       <c r="Y18" s="22" t="str">
         <f t="shared" ref="Y18" si="121">IF(V19=3,U18,"")</f>
@@ -12122,7 +12130,7 @@
       </c>
       <c r="AA18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W16)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W16)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W17)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W17)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W18)*(Matches!K5:K28=W19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W18)*(Matches!F5:F28=W19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -12142,7 +12150,7 @@
       </c>
       <c r="AF18" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="22">
         <f t="shared" ref="AG18" si="122">IF(W18&lt;&gt;"",SUMPRODUCT((V16:V19=V18)*(AF16:AF19&gt;AF18)*1),0)</f>
@@ -12162,7 +12170,7 @@
       </c>
       <c r="AK18" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X17)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X17)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12170,7 +12178,7 @@
       </c>
       <c r="AM18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X17)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X17)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X18)*(Matches!K5:K28=X19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X18)*(Matches!F5:F28=X19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -12190,7 +12198,7 @@
       </c>
       <c r="AR18" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="22">
         <f t="shared" ref="AS18" si="125">IF(X18&lt;&gt;"",SUMPRODUCT((V16:V19=V18)*(AR16:AR19&gt;AR18)*1),0)</f>
@@ -12210,7 +12218,7 @@
       </c>
       <c r="AW18" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y18)*(Matches!K5:K28=Y19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y18)*(Matches!F5:F28=Y19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12258,15 +12266,15 @@
       </c>
       <c r="BI18" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ18" s="22">
         <f>SUMPRODUCT((BI16:BI19=BI18)*(A16:A19&gt;A18)*1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BK18" s="22">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM18" s="192"/>
       <c r="BN18" s="193"/>
@@ -12307,7 +12315,7 @@
     <row r="19" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f>INDEX(M4:M35,MATCH(U19,C4:C35,0),0)</f>
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="B19" s="22">
         <f t="shared" si="25"/>
@@ -12319,7 +12327,7 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C19)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C19)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12327,7 +12335,7 @@
       </c>
       <c r="F19" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C19)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C19)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C19)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C19)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -12347,7 +12355,7 @@
       </c>
       <c r="K19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="22">
         <f>Setup!E23</f>
@@ -12359,7 +12367,7 @@
       </c>
       <c r="N19" s="22">
         <f>RANK(K19,K16:K19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="22">
         <f>SUMPRODUCT((N16:N19=N19)*(J16:J19&gt;J19)*1)</f>
@@ -12367,7 +12375,7 @@
       </c>
       <c r="P19" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="22">
         <f>SUMPRODUCT((N16:N19=N19)*(J16:J19=J19)*(H16:H19&gt;H19)*1)</f>
@@ -12375,26 +12383,26 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="22">
         <f>RANK(R19,R16:R19,1)+COUNTIF(R16:R19,R19)-1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" s="22">
         <v>4</v>
       </c>
       <c r="U19" s="22" t="str">
         <f t="shared" ref="U19" si="134">INDEX(C16:C19,MATCH(T19,S16:S19,0),0)</f>
-        <v>Costa Rica</v>
+        <v>Paraguay</v>
       </c>
       <c r="V19" s="22">
         <f>INDEX(R16:R19,MATCH(U19,C16:C19,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W19" s="22" t="str">
         <f t="shared" si="119"/>
-        <v>Costa Rica</v>
+        <v/>
       </c>
       <c r="X19" s="22" t="str">
         <f t="shared" ref="X19" si="135">IF(AND(X18&lt;&gt;"",V19=2),U19,"")</f>
@@ -12410,7 +12418,7 @@
       </c>
       <c r="AA19" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W16)*(Matches!H5:H28&gt;=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W16)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W17)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W18)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W16)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W16)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W17)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W17)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W19)*(Matches!K5:K28=W18)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W19)*(Matches!F5:F28=W18)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -12430,7 +12438,7 @@
       </c>
       <c r="AF19" s="22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="22">
         <f t="shared" ref="AG19" si="137">IF(W19&lt;&gt;"",SUMPRODUCT((V16:V19=V19)*(AF16:AF19&gt;AF19)*1),0)</f>
@@ -12450,7 +12458,7 @@
       </c>
       <c r="AK19" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL19" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X19)*(Matches!K5:K28=X17)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X19)*(Matches!F5:F28=X17)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X19)*(Matches!K5:K28=X18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X19)*(Matches!F5:F28=X18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12498,7 +12506,7 @@
       </c>
       <c r="AW19" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y19)*(Matches!K5:K28=Y18)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y19)*(Matches!F5:F28=Y18)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -12546,15 +12554,15 @@
       </c>
       <c r="BI19" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ19" s="22">
         <f>SUMPRODUCT((BI16:BI19=BI19)*(A16:A19&gt;A19)*1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="22">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BM19" s="192" t="s">
         <v>56</v>
@@ -12811,7 +12819,7 @@
       </c>
       <c r="BY25" s="189">
         <f>SUM(Matches!R23:R26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">

--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -3142,6 +3142,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection hidden="1"/>
@@ -3176,14 +3184,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5679,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5750,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="224" t="s">
+      <c r="P2" s="215" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5786,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="225" t="str">
+      <c r="H3" s="216" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="225"/>
+      <c r="I3" s="216"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5836,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="215" t="str">
+      <c r="P4" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="215"/>
+      <c r="Q4" s="217"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -5918,11 +5918,11 @@
       </c>
       <c r="R5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -5934,11 +5934,11 @@
       </c>
       <c r="V5" s="75" t="str">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q5,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>2 - 0</v>
+        <v>3 - 0</v>
       </c>
       <c r="W5" s="75">
         <f>VLOOKUP($Q5,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="71"/>
@@ -5993,31 +5993,31 @@
       </c>
       <c r="Q6" s="76" t="str">
         <f>INDEX(Calculator!$U$4:$U$7,MATCH(2,Calculator!$BK$4:$BK$7,0),0)</f>
-        <v>Peru</v>
+        <v>Canada</v>
       </c>
       <c r="R6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="75" t="str">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q6,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 2</v>
       </c>
       <c r="W6" s="75">
         <f>VLOOKUP($Q6,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="71"/>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="Q7" s="39" t="str">
         <f>INDEX(Calculator!$U$4:$U$7,MATCH(3,Calculator!$BK$4:$BK$7,0),0)</f>
-        <v>Chile</v>
+        <v>Peru</v>
       </c>
       <c r="R7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6089,11 +6089,11 @@
       </c>
       <c r="U7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="38" t="str">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q7,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 1</v>
       </c>
       <c r="W7" s="38">
         <f>VLOOKUP($Q7,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6151,11 +6151,11 @@
       </c>
       <c r="Q8" s="39" t="str">
         <f>INDEX(Calculator!$U$4:$U$7,MATCH(4,Calculator!$BK$4:$BK$7,0),0)</f>
-        <v>Canada</v>
+        <v>Chile</v>
       </c>
       <c r="R8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="T8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,5,FALSE)</f>
@@ -6171,11 +6171,11 @@
       </c>
       <c r="V8" s="38" t="str">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q8,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 2</v>
+        <v>0 - 1</v>
       </c>
       <c r="W8" s="38">
         <f>VLOOKUP($Q8,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="71"/>
@@ -6289,11 +6289,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="215" t="str">
+      <c r="P10" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="215"/>
+      <c r="Q10" s="217"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6511,8 +6511,12 @@
         <v>Peru</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
+      <c r="H13" s="115">
+        <v>0</v>
+      </c>
+      <c r="I13" s="116">
+        <v>1</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="2" t="str">
         <f>K5</f>
@@ -6589,8 +6593,12 @@
         <v>Chile</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
+      <c r="H14" s="115">
+        <v>0</v>
+      </c>
+      <c r="I14" s="116">
+        <v>1</v>
+      </c>
       <c r="J14" s="33"/>
       <c r="K14" s="34" t="str">
         <f>F5</f>
@@ -6734,11 +6742,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="215" t="str">
+      <c r="P16" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="215"/>
+      <c r="Q16" s="217"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -7123,11 +7131,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="215" t="str">
+      <c r="P22" s="217" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="215"/>
+      <c r="Q22" s="217"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7541,10 +7549,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="218" t="s">
+      <c r="L29" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="218"/>
+      <c r="M29" s="220"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7557,7 +7565,7 @@
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="223" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7597,7 +7605,7 @@
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="222"/>
+      <c r="C31" s="224"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7635,7 +7643,7 @@
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="222"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7675,7 +7683,7 @@
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="224"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7715,7 +7723,7 @@
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="223" t="s">
+      <c r="C34" s="225" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7757,7 +7765,7 @@
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="225"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7895,175 +7903,175 @@
       <c r="CR38" s="12"/>
     </row>
     <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="220" t="str">
+      <c r="B39" s="222" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="220"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222"/>
+      <c r="N39" s="222"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="216" t="str">
+      <c r="P39" s="218" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="216"/>
-      <c r="R39" s="216"/>
-      <c r="S39" s="216"/>
-      <c r="T39" s="216"/>
-      <c r="U39" s="216"/>
-      <c r="V39" s="216"/>
-      <c r="W39" s="216"/>
+      <c r="Q39" s="218"/>
+      <c r="R39" s="218"/>
+      <c r="S39" s="218"/>
+      <c r="T39" s="218"/>
+      <c r="U39" s="218"/>
+      <c r="V39" s="218"/>
+      <c r="W39" s="218"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="220"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="220"/>
-      <c r="I40" s="220"/>
-      <c r="J40" s="220"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="220"/>
-      <c r="M40" s="220"/>
-      <c r="N40" s="220"/>
+      <c r="B40" s="222"/>
+      <c r="C40" s="222"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="222"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="217" t="str">
+      <c r="P40" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
-      <c r="S40" s="217"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="217"/>
-      <c r="V40" s="217"/>
-      <c r="W40" s="217"/>
+      <c r="Q40" s="219"/>
+      <c r="R40" s="219"/>
+      <c r="S40" s="219"/>
+      <c r="T40" s="219"/>
+      <c r="U40" s="219"/>
+      <c r="V40" s="219"/>
+      <c r="W40" s="219"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="220"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="220"/>
-      <c r="K41" s="220"/>
-      <c r="L41" s="220"/>
-      <c r="M41" s="220"/>
-      <c r="N41" s="220"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222"/>
+      <c r="M41" s="222"/>
+      <c r="N41" s="222"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="217"/>
-      <c r="Q41" s="217"/>
-      <c r="R41" s="217"/>
-      <c r="S41" s="217"/>
-      <c r="T41" s="217"/>
-      <c r="U41" s="217"/>
-      <c r="V41" s="217"/>
-      <c r="W41" s="217"/>
+      <c r="P41" s="219"/>
+      <c r="Q41" s="219"/>
+      <c r="R41" s="219"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="219"/>
+      <c r="U41" s="219"/>
+      <c r="V41" s="219"/>
+      <c r="W41" s="219"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="219" t="str">
+      <c r="B42" s="221" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="221"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="216" t="str">
+      <c r="P42" s="218" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="216"/>
-      <c r="R42" s="216"/>
-      <c r="S42" s="216"/>
-      <c r="T42" s="216"/>
-      <c r="U42" s="216"/>
-      <c r="V42" s="216"/>
-      <c r="W42" s="216"/>
+      <c r="Q42" s="218"/>
+      <c r="R42" s="218"/>
+      <c r="S42" s="218"/>
+      <c r="T42" s="218"/>
+      <c r="U42" s="218"/>
+      <c r="V42" s="218"/>
+      <c r="W42" s="218"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="219"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="221"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="217" t="str">
+      <c r="P43" s="219" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="217"/>
-      <c r="R43" s="217"/>
-      <c r="S43" s="217"/>
-      <c r="T43" s="217"/>
-      <c r="U43" s="217"/>
-      <c r="V43" s="217"/>
-      <c r="W43" s="217"/>
+      <c r="Q43" s="219"/>
+      <c r="R43" s="219"/>
+      <c r="S43" s="219"/>
+      <c r="T43" s="219"/>
+      <c r="U43" s="219"/>
+      <c r="V43" s="219"/>
+      <c r="W43" s="219"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
     <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
-      <c r="K44" s="219"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="219"/>
-      <c r="P44" s="217"/>
-      <c r="Q44" s="217"/>
-      <c r="R44" s="217"/>
-      <c r="S44" s="217"/>
-      <c r="T44" s="217"/>
-      <c r="U44" s="217"/>
-      <c r="V44" s="217"/>
-      <c r="W44" s="217"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="221"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="219"/>
+      <c r="R44" s="219"/>
+      <c r="S44" s="219"/>
+      <c r="T44" s="219"/>
+      <c r="U44" s="219"/>
+      <c r="V44" s="219"/>
+      <c r="W44" s="219"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
@@ -8113,11 +8121,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8128,6 +8131,11 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -8259,11 +8267,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUM(E4:G4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C4)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C4)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -8275,7 +8283,7 @@
       </c>
       <c r="H4" s="22">
         <f>SUMIF(Matches!F5:F28,C4,Matches!H5:H28)+SUMIF(Matches!K5:K28,C4,Matches!I5:I28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="22">
         <f>SUMIF(Matches!F5:F28,C4,Matches!I5:I28)+SUMIF(Matches!K5:K28,C4,Matches!H5:H28)</f>
@@ -8283,11 +8291,11 @@
       </c>
       <c r="J4" s="22">
         <f>H4-I4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="22">
         <f>F4*1+E4*3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L4" s="22">
         <f>Setup!E8</f>
@@ -8470,7 +8478,7 @@
     <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <f>INDEX(M4:M35,MATCH(U5,C4:C35,0),0)</f>
-        <v>1533</v>
+        <v>1455</v>
       </c>
       <c r="B5" s="22">
         <v>2</v>
@@ -8481,7 +8489,7 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" ref="D5:D19" si="2">SUM(E5:G5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8493,7 +8501,7 @@
       </c>
       <c r="G5" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="22">
         <f>SUMIF(Matches!F5:F28,C5,Matches!H5:H28)+SUMIF(Matches!K5:K28,C5,Matches!I5:I28)</f>
@@ -8501,11 +8509,11 @@
       </c>
       <c r="I5" s="22">
         <f>SUMIF(Matches!F5:F28,C5,Matches!I5:I28)+SUMIF(Matches!K5:K28,C5,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" ref="J5:J19" si="3">H5-I5</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" ref="K5:K19" si="4">F5*1+E5*3</f>
@@ -8521,7 +8529,7 @@
       </c>
       <c r="N5" s="22">
         <f>RANK(K5,K4:K7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="22">
         <f>SUMPRODUCT((N4:N7=N5)*(J4:J7&gt;J5)*1)</f>
@@ -8529,7 +8537,7 @@
       </c>
       <c r="P5" s="22">
         <f t="shared" ref="P5:P19" si="5">N5+O5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="22">
         <f>SUMPRODUCT((N4:N7=N5)*(J4:J7=J5)*(H4:H7&gt;H5)*1)</f>
@@ -8537,18 +8545,18 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" ref="R5:R19" si="6">P5+Q5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="22">
         <f>RANK(R5,R4:R7,1)+COUNTIF(R4:R5,R5)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" s="22">
         <v>2</v>
       </c>
       <c r="U5" s="22" t="str">
         <f>INDEX(C4:C7,MATCH(T5,S4:S7,0),0)</f>
-        <v>Peru</v>
+        <v>Canada</v>
       </c>
       <c r="V5" s="22">
         <f>INDEX(R4:R7,MATCH(U5,C4:C7,0),0)</f>
@@ -8560,7 +8568,7 @@
       </c>
       <c r="X5" s="22" t="str">
         <f>IF(V6=2,U5,"")</f>
-        <v>Peru</v>
+        <v/>
       </c>
       <c r="Z5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W5)*(Matches!K5:K28=W7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W5)*(Matches!F5:F28=W7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8616,7 +8624,7 @@
       </c>
       <c r="AM5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X5)*(Matches!K5:K28=X7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X5)*(Matches!F5:F28=X7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8636,7 +8644,7 @@
       </c>
       <c r="AR5" s="22">
         <f t="shared" ref="AR5:AR19" si="11">AM5*1+AL5*3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="22">
         <f>IF(X5&lt;&gt;"",SUMPRODUCT((V4:V7=V5)*(AR4:AR7&gt;AR5)*1),0)</f>
@@ -8707,7 +8715,7 @@
     <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <f>INDEX(M4:M35,MATCH(U6,C4:C35,0),0)</f>
-        <v>1504</v>
+        <v>1533</v>
       </c>
       <c r="B6" s="22">
         <v>3</v>
@@ -8718,7 +8726,7 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8730,7 +8738,7 @@
       </c>
       <c r="G6" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="22">
         <f>SUMIF(Matches!F5:F28,C6,Matches!H5:H28)+SUMIF(Matches!K5:K28,C6,Matches!I5:I28)</f>
@@ -8738,11 +8746,11 @@
       </c>
       <c r="I6" s="22">
         <f>SUMIF(Matches!F5:F28,C6,Matches!I5:I28)+SUMIF(Matches!K5:K28,C6,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="22">
         <f t="shared" si="4"/>
@@ -8758,7 +8766,7 @@
       </c>
       <c r="N6" s="22">
         <f>RANK(K6,K4:K7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="22">
         <f>SUMPRODUCT((N4:N7=N6)*(J4:J7&gt;J6)*1)</f>
@@ -8766,7 +8774,7 @@
       </c>
       <c r="P6" s="22">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="22">
         <f>SUMPRODUCT((N4:N7=N6)*(J4:J7=J6)*(H4:H7&gt;H6)*1)</f>
@@ -8774,22 +8782,22 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" s="22">
         <f>IF(Matches!B45="© 2022 | journalSHEET.com",RANK(R6,R4:R7,1)+COUNTIF(R4:R6,R6)-1,2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" s="22">
         <v>3</v>
       </c>
       <c r="U6" s="22" t="str">
         <f>INDEX(C4:C7,MATCH(T6,S4:S7,0),0)</f>
-        <v>Chile</v>
+        <v>Peru</v>
       </c>
       <c r="V6" s="22">
         <f>INDEX(R4:R7,MATCH(U6,C4:C7,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" s="22" t="str">
         <f>IF(AND(W5&lt;&gt;"",V6=1),U6,"")</f>
@@ -8797,11 +8805,11 @@
       </c>
       <c r="X6" s="22" t="str">
         <f>IF(X5&lt;&gt;"",U6,"")</f>
-        <v>Chile</v>
+        <v/>
       </c>
       <c r="Y6" s="22" t="str">
         <f>IF(V7=3,U6,"")</f>
-        <v/>
+        <v>Peru</v>
       </c>
       <c r="Z6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W6)*(Matches!K5:K28=W7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W6)*(Matches!F5:F28=W7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8849,7 +8857,7 @@
       </c>
       <c r="AK6" s="22">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8857,7 +8865,7 @@
       </c>
       <c r="AM6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X5)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X5)*(Matches!I5:I28&lt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X6)*(Matches!K5:K28=X7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X6)*(Matches!F5:F28=X7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8877,7 +8885,7 @@
       </c>
       <c r="AR6" s="22">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="22">
         <f>IF(X6&lt;&gt;"",SUMPRODUCT((V4:V7=V6)*(AR4:AR7&gt;AR6)*1),0)</f>
@@ -8897,7 +8905,7 @@
       </c>
       <c r="AW6" s="22">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y6)*(Matches!K5:K28=Y7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y6)*(Matches!F5:F28=Y7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -8905,7 +8913,7 @@
       </c>
       <c r="AY6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y6)*(Matches!K5:K28=Y7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y6)*(Matches!F5:F28=Y7)*(Matches!I5:I28=Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y6)*(Matches!K5:K28=Y7)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y6)*(Matches!F5:F28=Y7)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -8925,7 +8933,7 @@
       </c>
       <c r="BD6" s="22">
         <f t="shared" ref="BD6:BD7" si="16">AY6*1+AX6*3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="22">
         <f>IF(Y6&lt;&gt;"",SUMPRODUCT((AH4:AH7=AH6)*(BD4:BD7&gt;BD6)*1),0)</f>
@@ -8945,11 +8953,11 @@
       </c>
       <c r="BI6" s="22">
         <f t="shared" ref="BI6:BI19" si="17">AW6+BG6+BH6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ6" s="22">
         <f>SUMPRODUCT((BI4:BI7=BI6)*(A4:A7&gt;A6)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="22">
         <f t="shared" si="14"/>
@@ -8969,7 +8977,7 @@
     <row r="7" spans="1:78" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>INDEX(M4:M35,MATCH(U7,C4:C35,0),0)</f>
-        <v>1455</v>
+        <v>1504</v>
       </c>
       <c r="B7" s="22">
         <v>4</v>
@@ -8980,11 +8988,11 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C7)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C7)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C7)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C7)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -8996,7 +9004,7 @@
       </c>
       <c r="H7" s="22">
         <f>SUMIF(Matches!F5:F28,C7,Matches!H5:H28)+SUMIF(Matches!K5:K28,C7,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="22">
         <f>SUMIF(Matches!F5:F28,C7,Matches!I5:I28)+SUMIF(Matches!K5:K28,C7,Matches!H5:H28)</f>
@@ -9004,11 +9012,11 @@
       </c>
       <c r="J7" s="22">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="22">
         <f>Setup!E11</f>
@@ -9020,7 +9028,7 @@
       </c>
       <c r="N7" s="22">
         <f>RANK(K7,K4:K7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7" s="22">
         <f>SUMPRODUCT((N4:N7=N7)*(J4:J7&gt;J7)*1)</f>
@@ -9028,7 +9036,7 @@
       </c>
       <c r="P7" s="22">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="22">
         <f>SUMPRODUCT((N4:N7=N7)*(J4:J7=J7)*(H4:H7&gt;H7)*1)</f>
@@ -9036,22 +9044,22 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7" s="22">
         <f>RANK(R7,R4:R7,1)+COUNTIF(R4:R7,R7)-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T7" s="22">
         <v>4</v>
       </c>
       <c r="U7" s="22" t="str">
         <f>INDEX(C4:C7,MATCH(T7,S4:S7,0),0)</f>
-        <v>Canada</v>
+        <v>Chile</v>
       </c>
       <c r="V7" s="22">
         <f>INDEX(R4:R7,MATCH(U7,C4:C7,0),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7" s="22" t="str">
         <f>IF(AND(W6&lt;&gt;"",V7=1),U7,"")</f>
@@ -9063,7 +9071,7 @@
       </c>
       <c r="Y7" s="22" t="str">
         <f>IF(AND(Y6&lt;&gt;"",V7=3),U7,"")</f>
-        <v/>
+        <v>Chile</v>
       </c>
       <c r="Z7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W4)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W4)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=W7)*(Matches!K5:K28=W6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=W7)*(Matches!F5:F28=W6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9111,7 +9119,7 @@
       </c>
       <c r="AK7" s="22">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=X7)*(Matches!K5:K28=X5)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X7)*(Matches!F5:F28=X5)*(Matches!I5:I28&gt;Matches!H5:H28)*1)+SUMPRODUCT((Matches!F5:F28=X7)*(Matches!K5:K28=X6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=X7)*(Matches!F5:F28=X6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9159,7 +9167,7 @@
       </c>
       <c r="AW7" s="22">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y7)*(Matches!K5:K28=Y6)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y7)*(Matches!F5:F28=Y6)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9167,7 +9175,7 @@
       </c>
       <c r="AY7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y7)*(Matches!K5:K28=Y6)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y7)*(Matches!F5:F28=Y6)*(Matches!I5:I28=Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="22">
         <f>SUMPRODUCT((Matches!F5:F28=Y7)*(Matches!K5:K28=Y6)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!K5:K28=Y7)*(Matches!F5:F28=Y6)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
@@ -9187,7 +9195,7 @@
       </c>
       <c r="BD7" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="22">
         <f>IF(Y7&lt;&gt;"",SUMPRODUCT((AH4:AH7=AH7)*(BD4:BD7&gt;BD7)*1),0)</f>
@@ -9207,11 +9215,11 @@
       </c>
       <c r="BI7" s="22">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ7" s="22">
         <f>SUMPRODUCT((BI4:BI7=BI7)*(A4:A7&gt;A7)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="22">
         <f t="shared" si="14"/>
@@ -9255,7 +9263,7 @@
       </c>
       <c r="BY7" s="189">
         <f>SUM(Matches!R5:R8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BZ7" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B8,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>

--- a/backend/excels/COPA_AMERICA_2024.xlsx
+++ b/backend/excels/COPA_AMERICA_2024.xlsx
@@ -3142,48 +3142,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F0B358-F8E3-CD1A-6E69-A0FD46FA1B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4510,7 @@
         <xdr:cNvPr id="4" name="Chevron 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5677,9 +5677,9 @@
   <dimension ref="A1:CR168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5750,16 +5750,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="215" t="s">
+      <c r="P2" s="224" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="71"/>
       <c r="CO2" s="12"/>
@@ -5786,11 +5786,11 @@
         <v>Country</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="216" t="str">
+      <c r="H3" s="225" t="str">
         <f>INDEX(Translation,MATCH("Score",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
         <v>Score</v>
       </c>
-      <c r="I3" s="216"/>
+      <c r="I3" s="225"/>
       <c r="J3" s="138"/>
       <c r="K3" s="139" t="str">
         <f>INDEX(Translation,MATCH("Country",TransRef,0),MATCH(Setup!C5,LanguageRef,0))</f>
@@ -5836,11 +5836,11 @@
       <c r="M4" s="145"/>
       <c r="N4" s="146"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="217" t="str">
+      <c r="P4" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group A",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group A</v>
       </c>
-      <c r="Q4" s="217"/>
+      <c r="Q4" s="215"/>
       <c r="R4" s="147" t="s">
         <v>54</v>
       </c>
@@ -6289,11 +6289,11 @@
         <v>457</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="217" t="str">
+      <c r="P10" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group B",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group B</v>
       </c>
-      <c r="Q10" s="217"/>
+      <c r="Q10" s="215"/>
       <c r="R10" s="147" t="s">
         <v>54</v>
       </c>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="R11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="V11" s="77" t="str">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q11,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>2 - 1</v>
+        <v>3 - 1</v>
       </c>
       <c r="W11" s="77">
         <f>VLOOKUP($Q11,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="71"/>
@@ -6452,11 +6452,11 @@
       </c>
       <c r="Q12" s="78" t="str">
         <f>INDEX(Calculator!$U$8:$U$11,MATCH(2,Calculator!$BK$8:$BK$11,0),0)</f>
-        <v>Mexico</v>
+        <v>Ecuador</v>
       </c>
       <c r="R12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6468,11 +6468,11 @@
       </c>
       <c r="U12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="77" t="str">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q12,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>1 - 0</v>
+        <v>4 - 3</v>
       </c>
       <c r="W12" s="77">
         <f>VLOOKUP($Q12,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6531,15 +6531,15 @@
       </c>
       <c r="Q13" s="39" t="str">
         <f>INDEX(Calculator!$U$8:$U$11,MATCH(3,Calculator!$BK$8:$BK$11,0),0)</f>
-        <v>Ecuador</v>
+        <v>Mexico</v>
       </c>
       <c r="R13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,4,FALSE)</f>
@@ -6551,11 +6551,11 @@
       </c>
       <c r="V13" s="38" t="str">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q13,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>1 - 2</v>
+        <v>1 - 1</v>
       </c>
       <c r="W13" s="38">
         <f>VLOOKUP($Q13,Calculator!$C$4:$K$35,9,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="71"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="R14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,3,FALSE)</f>
@@ -6631,11 +6631,11 @@
       </c>
       <c r="U14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" s="38" t="str">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,6,FALSE)&amp;" - "&amp;VLOOKUP($Q14,Calculator!$C$4:$K$35,7,FALSE)</f>
-        <v>0 - 1</v>
+        <v>1 - 4</v>
       </c>
       <c r="W14" s="38">
         <f>VLOOKUP($Q14,Calculator!$C$4:$K$35,9,FALSE)</f>
@@ -6676,8 +6676,12 @@
         <v>Ecuador</v>
       </c>
       <c r="G15" s="37"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="116"/>
+      <c r="H15" s="115">
+        <v>3</v>
+      </c>
+      <c r="I15" s="116">
+        <v>1</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="2" t="str">
         <f>K8</f>
@@ -6729,8 +6733,12 @@
         <v>Venezuela</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
+      <c r="H16" s="115">
+        <v>1</v>
+      </c>
+      <c r="I16" s="116">
+        <v>0</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="34" t="str">
         <f>F8</f>
@@ -6742,11 +6750,11 @@
         <v>458</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="217" t="str">
+      <c r="P16" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group C",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group C</v>
       </c>
-      <c r="Q16" s="217"/>
+      <c r="Q16" s="215"/>
       <c r="R16" s="147" t="s">
         <v>54</v>
       </c>
@@ -7131,11 +7139,11 @@
         <v>463</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="217" t="str">
+      <c r="P22" s="215" t="str">
         <f>INDEX(Translation,MATCH("Group D",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Group D</v>
       </c>
-      <c r="Q22" s="217"/>
+      <c r="Q22" s="215"/>
       <c r="R22" s="147" t="s">
         <v>54</v>
       </c>
@@ -7549,10 +7557,10 @@
       <c r="I29" s="153"/>
       <c r="J29" s="152"/>
       <c r="K29" s="154"/>
-      <c r="L29" s="220" t="s">
+      <c r="L29" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="220"/>
+      <c r="M29" s="218"/>
       <c r="N29" s="180"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="71"/>
@@ -7565,7 +7573,7 @@
       <c r="B30" s="43">
         <v>25</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="221" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="31">
@@ -7605,7 +7613,7 @@
       <c r="B31" s="43">
         <v>26</v>
       </c>
-      <c r="C31" s="224"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
         <v>45478.833333333336</v>
@@ -7643,7 +7651,7 @@
       <c r="B32" s="43">
         <v>27</v>
       </c>
-      <c r="C32" s="224"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>45479.75</v>
@@ -7683,7 +7691,7 @@
       <c r="B33" s="45">
         <v>28</v>
       </c>
-      <c r="C33" s="224"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
         <v>45479.625</v>
@@ -7723,7 +7731,7 @@
       <c r="B34" s="42">
         <v>29</v>
       </c>
-      <c r="C34" s="225" t="s">
+      <c r="C34" s="223" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="31">
@@ -7765,7 +7773,7 @@
       <c r="B35" s="45">
         <v>30</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
         <v>45482.833333333336</v>
@@ -7903,175 +7911,175 @@
       <c r="CR38" s="12"/>
     </row>
     <row r="39" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="222" t="str">
+      <c r="B39" s="220" t="str">
         <f>UPPER(INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0)))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="222"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
-      <c r="N39" s="222"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="220"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="218" t="str">
+      <c r="P39" s="216" t="str">
         <f>INDEX(Translation,MATCH("Second Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Second place</v>
       </c>
-      <c r="Q39" s="218"/>
-      <c r="R39" s="218"/>
-      <c r="S39" s="218"/>
-      <c r="T39" s="218"/>
-      <c r="U39" s="218"/>
-      <c r="V39" s="218"/>
-      <c r="W39" s="218"/>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="216"/>
+      <c r="S39" s="216"/>
+      <c r="T39" s="216"/>
+      <c r="U39" s="216"/>
+      <c r="V39" s="216"/>
+      <c r="W39" s="216"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="222"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="222"/>
-      <c r="L40" s="222"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="222"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="220"/>
+      <c r="M40" s="220"/>
+      <c r="N40" s="220"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="219" t="str">
+      <c r="P40" s="217" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&lt;(I37+M37),F37,IF((H37+L37)&gt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Runner Up",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 RUNNER UP</v>
       </c>
-      <c r="Q40" s="219"/>
-      <c r="R40" s="219"/>
-      <c r="S40" s="219"/>
-      <c r="T40" s="219"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="219"/>
-      <c r="W40" s="219"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="222"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="222"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="220"/>
+      <c r="M41" s="220"/>
+      <c r="N41" s="220"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="219"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="219"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="219"/>
-      <c r="U41" s="219"/>
-      <c r="V41" s="219"/>
-      <c r="W41" s="219"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="W41" s="217"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="221" t="str">
+      <c r="B42" s="219" t="str">
         <f>UPPER(IF(AND(H37&lt;&gt;"",I37&lt;&gt;""),IF((H37+L37)&gt;(I37+M37),F37,IF((H37+L37)&lt;(I37+M37),K37,INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 Champion",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 CHAMPION</v>
       </c>
-      <c r="C42" s="221"/>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="218" t="str">
+      <c r="P42" s="216" t="str">
         <f>INDEX(Translation,MATCH("Third Place",TransRef,0),MATCH(Setup!$C$5,LanguageRef,0))</f>
         <v>Third Place</v>
       </c>
-      <c r="Q42" s="218"/>
-      <c r="R42" s="218"/>
-      <c r="S42" s="218"/>
-      <c r="T42" s="218"/>
-      <c r="U42" s="218"/>
-      <c r="V42" s="218"/>
-      <c r="W42" s="218"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="221"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="221"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="219"/>
+      <c r="K43" s="219"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="219"/>
+      <c r="N43" s="219"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="219" t="str">
+      <c r="P43" s="217" t="str">
         <f>UPPER(IF(AND(H36&lt;&gt;"",I36&lt;&gt;""),IF((H36+L36)&gt;(I36+M36),F36,IF((H36+L36)&lt;(I36+M36),K36,INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0)))),INDEX(Translation,MATCH("Copa America 2024 3rd Place",TransRef,0),MATCH(Setup!C5,LanguageRef,0))))</f>
         <v>COPA AMERICA 2024 3RD PLACE</v>
       </c>
-      <c r="Q43" s="219"/>
-      <c r="R43" s="219"/>
-      <c r="S43" s="219"/>
-      <c r="T43" s="219"/>
-      <c r="U43" s="219"/>
-      <c r="V43" s="219"/>
-      <c r="W43" s="219"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="217"/>
+      <c r="V43" s="217"/>
+      <c r="W43" s="217"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="71"/>
     </row>
     <row r="44" spans="1:96" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="221"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="221"/>
-      <c r="E44" s="221"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="221"/>
-      <c r="I44" s="221"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="P44" s="219"/>
-      <c r="Q44" s="219"/>
-      <c r="R44" s="219"/>
-      <c r="S44" s="219"/>
-      <c r="T44" s="219"/>
-      <c r="U44" s="219"/>
-      <c r="V44" s="219"/>
-      <c r="W44" s="219"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
+      <c r="K44" s="219"/>
+      <c r="L44" s="219"/>
+      <c r="M44" s="219"/>
+      <c r="N44" s="219"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="71"/>
     </row>
@@ -8121,6 +8129,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sn7zhLWSDyAMrTHqdd8g+DhhZsKvu8x+ugDo2h1xANTepuYZXJvbFosygqkBknAkHgD7ODEQ+1T54c1DhdGt3g==" saltValue="Nli0686FFdok1JEOD4082A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P42:W42"/>
     <mergeCell ref="P43:W44"/>
@@ -8131,11 +8144,6 @@
     <mergeCell ref="B39:N41"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F30:F37">
     <cfRule type="expression" dxfId="16" priority="5">
@@ -9285,7 +9293,7 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C8)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C8)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -9297,7 +9305,7 @@
       </c>
       <c r="G8" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C8)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C8)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="22">
         <f>SUMIF(Matches!F5:F28,C8,Matches!H5:H28)+SUMIF(Matches!K5:K28,C8,Matches!I5:I28)</f>
@@ -9305,11 +9313,11 @@
       </c>
       <c r="I8" s="22">
         <f>SUMIF(Matches!F5:F28,C8,Matches!I5:I28)+SUMIF(Matches!K5:K28,C8,Matches!H5:H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="4"/>
@@ -9325,27 +9333,27 @@
       </c>
       <c r="N8" s="22">
         <f>RANK(K8,K8:K11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="22">
         <f>SUMPRODUCT((N8:N11=N8)*(J8:J11&gt;J8)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="22">
         <f>SUMPRODUCT((N8:N11=N8)*(J8:J11=J8)*(H8:H11&gt;H8)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" s="22">
         <f>RANK(R8,R8:R11,1)+COUNTIF(R8:R8,R8)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="22">
         <v>1</v>
@@ -9534,7 +9542,7 @@
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f>INDEX(M4:M35,MATCH(U9,C4:C35,0),0)</f>
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="B9" s="22">
         <f t="shared" ref="B9:B19" si="25">B5</f>
@@ -9546,11 +9554,11 @@
       </c>
       <c r="D9" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C9)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C9)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C9)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C9)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -9562,19 +9570,19 @@
       </c>
       <c r="H9" s="22">
         <f>SUMIF(Matches!F5:F28,C9,Matches!H5:H28)+SUMIF(Matches!K5:K28,C9,Matches!I5:I28)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="22">
         <f>SUMIF(Matches!F5:F28,C9,Matches!I5:I28)+SUMIF(Matches!K5:K28,C9,Matches!H5:H28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="22">
         <f>Setup!E13</f>
@@ -9586,7 +9594,7 @@
       </c>
       <c r="N9" s="22">
         <f>RANK(K9,K8:K11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="22">
         <f>SUMPRODUCT((N8:N11=N9)*(J8:J11&gt;J9)*1)</f>
@@ -9594,7 +9602,7 @@
       </c>
       <c r="P9" s="22">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="22">
         <f>SUMPRODUCT((N8:N11=N9)*(J8:J11=J9)*(H8:H11&gt;H9)*1)</f>
@@ -9602,18 +9610,18 @@
       </c>
       <c r="R9" s="22">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" s="22">
         <f>RANK(R9,R8:R11,1)+COUNTIF(R8:R9,R9)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="22">
         <v>2</v>
       </c>
       <c r="U9" s="22" t="str">
         <f t="shared" ref="U9" si="26">INDEX(C8:C11,MATCH(T9,S8:S11,0),0)</f>
-        <v>Mexico</v>
+        <v>Ecuador</v>
       </c>
       <c r="V9" s="22">
         <f>INDEX(R8:R11,MATCH(U9,C8:C11,0),0)</f>
@@ -9807,7 +9815,7 @@
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f>INDEX(M4:M35,MATCH(U10,C4:C35,0),0)</f>
-        <v>1508</v>
+        <v>1664</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" si="25"/>
@@ -9819,11 +9827,11 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C10)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C10)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C10)*(Matches!H5:H28=Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C10)*(Matches!H5:H28=Matches!I5:I28)*1)</f>
@@ -9835,7 +9843,7 @@
       </c>
       <c r="H10" s="22">
         <f>SUMIF(Matches!F5:F28,C10,Matches!H5:H28)+SUMIF(Matches!K5:K28,C10,Matches!I5:I28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="22">
         <f>SUMIF(Matches!F5:F28,C10,Matches!I5:I28)+SUMIF(Matches!K5:K28,C10,Matches!H5:H28)</f>
@@ -9843,11 +9851,11 @@
       </c>
       <c r="J10" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L10" s="22">
         <f>Setup!E14</f>
@@ -9886,7 +9894,7 @@
       </c>
       <c r="U10" s="22" t="str">
         <f>INDEX(C8:C11,MATCH(T10,S8:S11,0),0)</f>
-        <v>Ecuador</v>
+        <v>Mexico</v>
       </c>
       <c r="V10" s="22">
         <f>INDEX(R8:R11,MATCH(U10,C8:C11,0),0)</f>
@@ -10107,7 +10115,7 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C11)*(Matches!H5:H28&gt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C11)*(Matches!I5:I28&gt;Matches!H5:H28)*1)</f>
@@ -10119,19 +10127,19 @@
       </c>
       <c r="G11" s="22">
         <f>SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!F5:F28=C11)*(Matches!H5:H28&lt;Matches!I5:I28)*1)+SUMPRODUCT((Matches!H5:H28&lt;&gt;"")*(Matches!K5:K28=C11)*(Matches!I5:I28&lt;Matches!H5:H28)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="22">
         <f>SUMIF(Matches!F5:F28,C11,Matches!H5:H28)+SUMIF(Matches!K5:K28,C11,Matches!I5:I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="22">
         <f>SUMIF(Matches!F5:F28,C11,Matches!I5:I28)+SUMIF(Matches!K5:K28,C11,Matches!H5:H28)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="4"/>
@@ -10147,7 +10155,7 @@
       </c>
       <c r="N11" s="22">
         <f>RANK(K11,K8:K11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="22">
         <f>SUMPRODUCT((N8:N11=N11)*(J8:J11&gt;J11)*1)</f>
@@ -10155,11 +10163,11 @@
       </c>
       <c r="P11" s="22">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="22">
         <f>SUMPRODUCT((N8:N11=N11)*(J8:J11=J11)*(H8:H11&gt;H11)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="6"/>
@@ -10913,7 +10921,7 @@
       </c>
       <c r="BY13" s="189">
         <f>SUM(Matches!R11:R14)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BZ13" s="189" t="str">
         <f>INDEX(Language!$A$1:$K$80,MATCH(Setup!B14,Language!$B$1:$B$80,0),MATCH(Setup!$C$5,Language!$A$1:$J$1,0))</f>
